--- a/data/fund_matrix.xlsx
+++ b/data/fund_matrix.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\portfolioanalysis\stock-debt-hybrid-strategy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC92B0-9FD5-4128-83E3-C3AF407795E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6386A-B3CF-4F90-9A3B-27805BE01246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$795</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -4817,7 +4820,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4836,6 +4843,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4871,16 +4885,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5184,7 +5206,7 @@
   <dimension ref="A1:I795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E804" sqref="E804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5192,7 +5214,9 @@
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="9" width="15.125" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -5208,7 +5232,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -10138,8 +10162,8 @@
       <c r="E171">
         <v>0.53244471764749235</v>
       </c>
-      <c r="F171">
-        <v>-1</v>
+      <c r="F171" s="2">
+        <v>-0.41539999999999999</v>
       </c>
       <c r="G171">
         <v>-2.6412645627190291E-2</v>
@@ -10312,8 +10336,8 @@
       <c r="E177">
         <v>1.069709749118203</v>
       </c>
-      <c r="F177">
-        <v>-1</v>
+      <c r="F177" s="2">
+        <v>-0.42530000000000001</v>
       </c>
       <c r="G177">
         <v>-2.4260167685057531E-2</v>
@@ -10341,8 +10365,8 @@
       <c r="E178">
         <v>0.97981618384642932</v>
       </c>
-      <c r="F178">
-        <v>-1</v>
+      <c r="F178" s="2">
+        <v>-0.42530000000000001</v>
       </c>
       <c r="G178">
         <v>-2.4158246839005072E-2</v>
@@ -10370,8 +10394,8 @@
       <c r="E179">
         <v>0.19192602583471541</v>
       </c>
-      <c r="F179">
-        <v>-1</v>
+      <c r="F179" s="2">
+        <v>-0.31</v>
       </c>
       <c r="G179">
         <v>-2.2623466566467888E-2</v>
@@ -10399,8 +10423,8 @@
       <c r="E180">
         <v>0.1726968339800069</v>
       </c>
-      <c r="F180">
-        <v>-1</v>
+      <c r="F180" s="2">
+        <v>-0.31509999999999999</v>
       </c>
       <c r="G180">
         <v>-2.2649812612178161E-2</v>
@@ -10429,7 +10453,7 @@
         <v>1.5776972283145181</v>
       </c>
       <c r="F181">
-        <v>-1</v>
+        <v>-0.2462</v>
       </c>
       <c r="G181">
         <v>-1.7693464632041269E-2</v>
@@ -10458,7 +10482,7 @@
         <v>1.5479367041527901</v>
       </c>
       <c r="F182">
-        <v>-1</v>
+        <v>-0.2462</v>
       </c>
       <c r="G182">
         <v>-1.772088015409598E-2</v>
@@ -10747,8 +10771,8 @@
       <c r="E192">
         <v>1.364935320956117</v>
       </c>
-      <c r="F192">
-        <v>-1</v>
+      <c r="F192" s="2">
+        <v>-0.41839999999999999</v>
       </c>
       <c r="G192">
         <v>-2.7548913389337921E-2</v>
@@ -10776,8 +10800,8 @@
       <c r="E193">
         <v>1.341672647242911</v>
       </c>
-      <c r="F193">
-        <v>-1</v>
+      <c r="F193" s="2">
+        <v>-0.41959999999999997</v>
       </c>
       <c r="G193">
         <v>-2.7567220060288299E-2</v>
@@ -11124,8 +11148,8 @@
       <c r="E205">
         <v>0.72408457425146489</v>
       </c>
-      <c r="F205">
-        <v>-1</v>
+      <c r="F205" s="2">
+        <v>-0.45029999999999998</v>
       </c>
       <c r="G205">
         <v>-2.774349615450231E-2</v>
@@ -12197,8 +12221,8 @@
       <c r="E242">
         <v>1.120711201395086</v>
       </c>
-      <c r="F242">
-        <v>-1</v>
+      <c r="F242" s="2">
+        <v>-0.3049</v>
       </c>
       <c r="G242">
         <v>-2.155987075302088E-2</v>
@@ -12255,8 +12279,8 @@
       <c r="E244">
         <v>0.90739882761471302</v>
       </c>
-      <c r="F244">
-        <v>-1</v>
+      <c r="F244" s="2">
+        <v>-0.4274</v>
       </c>
       <c r="G244">
         <v>-2.7781156005829439E-2</v>
@@ -12284,8 +12308,8 @@
       <c r="E245">
         <v>0.86220586268771415</v>
       </c>
-      <c r="F245">
-        <v>-1</v>
+      <c r="F245" s="2">
+        <v>-0.43109999999999998</v>
       </c>
       <c r="G245">
         <v>-2.7820403627928751E-2</v>
@@ -12661,8 +12685,8 @@
       <c r="E258">
         <v>0.64607481471158923</v>
       </c>
-      <c r="F258">
-        <v>-1</v>
+      <c r="F258" s="2">
+        <v>-0.42520000000000002</v>
       </c>
       <c r="G258">
         <v>-2.3358630071378141E-2</v>
@@ -12864,8 +12888,8 @@
       <c r="E265">
         <v>1.5904598248632329</v>
       </c>
-      <c r="F265">
-        <v>-1</v>
+      <c r="F265" s="2">
+        <v>-0.3831</v>
       </c>
       <c r="G265">
         <v>-2.4888472232970471E-2</v>
@@ -12893,8 +12917,8 @@
       <c r="E266">
         <v>1.5589133114196569</v>
       </c>
-      <c r="F266">
-        <v>-1</v>
+      <c r="F266" s="2">
+        <v>-0.38490000000000002</v>
       </c>
       <c r="G266">
         <v>-2.491031594122501E-2</v>
@@ -12922,8 +12946,8 @@
       <c r="E267">
         <v>0.54617148578449382</v>
       </c>
-      <c r="F267">
-        <v>-1</v>
+      <c r="F267" s="2">
+        <v>-0.30459999999999998</v>
       </c>
       <c r="G267">
         <v>-2.3838726162092219E-2</v>
@@ -12951,8 +12975,8 @@
       <c r="E268">
         <v>0.51069990772602347</v>
       </c>
-      <c r="F268">
-        <v>-1</v>
+      <c r="F268" s="2">
+        <v>-0.30819999999999997</v>
       </c>
       <c r="G268">
         <v>-2.3861902388316841E-2</v>
@@ -12980,7 +13004,7 @@
       <c r="E269">
         <v>1.7866550417717351</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="2">
         <v>-0.3587376957345213</v>
       </c>
       <c r="G269">
@@ -13009,7 +13033,7 @@
       <c r="E270">
         <v>-0.1686499660679989</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="2">
         <v>-0.41142586601436132</v>
       </c>
       <c r="G270">
@@ -13038,7 +13062,7 @@
       <c r="E271">
         <v>0.999034816204174</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="2">
         <v>-0.44473203410475032</v>
       </c>
       <c r="G271">
@@ -13067,7 +13091,7 @@
       <c r="E272">
         <v>0.56681574889751418</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="2">
         <v>-0.54468919857779219</v>
       </c>
       <c r="G272">
@@ -13096,7 +13120,7 @@
       <c r="E273">
         <v>0.84934960076798838</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="2">
         <v>-0.47264912737692111</v>
       </c>
       <c r="G273">
@@ -13125,7 +13149,7 @@
       <c r="E274">
         <v>2.0915911703676389</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="2">
         <v>-0.35331835626696628</v>
       </c>
       <c r="G274">
@@ -13154,7 +13178,7 @@
       <c r="E275">
         <v>1.2592673770981739</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="2">
         <v>-0.3653309521151914</v>
       </c>
       <c r="G275">
@@ -13183,7 +13207,7 @@
       <c r="E276">
         <v>1.8760263432454729</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="2">
         <v>-0.4191834013178537</v>
       </c>
       <c r="G276">
@@ -13212,7 +13236,7 @@
       <c r="E277">
         <v>0.79159094989124168</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="2">
         <v>-0.50982135952362539</v>
       </c>
       <c r="G277">
@@ -13241,7 +13265,7 @@
       <c r="E278">
         <v>1.428235097996146</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="2">
         <v>-0.47680387409200958</v>
       </c>
       <c r="G278">
@@ -13270,7 +13294,7 @@
       <c r="E279">
         <v>1.393416258477967</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="2">
         <v>-0.47902557614546898</v>
       </c>
       <c r="G279">
@@ -13299,7 +13323,7 @@
       <c r="E280">
         <v>0.76317646532319339</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="2">
         <v>-0.22381127001589049</v>
       </c>
       <c r="G280">
@@ -13328,7 +13352,7 @@
       <c r="E281">
         <v>0.70074715921284925</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="2">
         <v>-0.22781157874929439</v>
       </c>
       <c r="G281">
@@ -13357,7 +13381,7 @@
       <c r="E282">
         <v>1.5407052698950909</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="2">
         <v>-0.42831391751190517</v>
       </c>
       <c r="G282">
@@ -13386,7 +13410,7 @@
       <c r="E283">
         <v>1.4971404926715011</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="2">
         <v>-0.43014584023864771</v>
       </c>
       <c r="G283">
@@ -13415,7 +13439,7 @@
       <c r="E284">
         <v>1.548291733938471</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="2">
         <v>-0.43552571341370372</v>
       </c>
       <c r="G284">
@@ -13444,7 +13468,7 @@
       <c r="E285">
         <v>1.511053813790243</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="2">
         <v>-0.43838998025153297</v>
       </c>
       <c r="G285">
@@ -13473,7 +13497,7 @@
       <c r="E286">
         <v>0.90659027743967679</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="2">
         <v>-0.34122890480244378</v>
       </c>
       <c r="G286">
@@ -13502,7 +13526,7 @@
       <c r="E287">
         <v>1.556583208467794</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="2">
         <v>-0.50398462668852084</v>
       </c>
       <c r="G287">
@@ -13531,7 +13555,7 @@
       <c r="E288">
         <v>1.72119979600781</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="2">
         <v>-0.36087503143072669</v>
       </c>
       <c r="G288">
@@ -13560,7 +13584,7 @@
       <c r="E289">
         <v>1.6848314735980849</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="2">
         <v>-0.36289103533089079</v>
       </c>
       <c r="G289">
@@ -13589,7 +13613,7 @@
       <c r="E290">
         <v>1.4208558951172019</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="2">
         <v>-0.45959085570698938</v>
       </c>
       <c r="G290">
@@ -13618,7 +13642,7 @@
       <c r="E291">
         <v>1.4707912127161611</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="2">
         <v>-0.45776696461627969</v>
       </c>
       <c r="G291">
@@ -13647,7 +13671,7 @@
       <c r="E292">
         <v>-0.29230997328266523</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="2">
         <v>-0.31469428911907588</v>
       </c>
       <c r="G292">
@@ -13676,7 +13700,7 @@
       <c r="E293">
         <v>1.391060615792072</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="2">
         <v>-0.19360672564641479</v>
       </c>
       <c r="G293">
@@ -13705,7 +13729,7 @@
       <c r="E294">
         <v>0.80394009282255974</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="2">
         <v>-0.3351961551357997</v>
       </c>
       <c r="G294">
@@ -13734,7 +13758,7 @@
       <c r="E295">
         <v>0.75520956218016833</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="2">
         <v>-0.33929280889948349</v>
       </c>
       <c r="G295">
@@ -13763,8 +13787,8 @@
       <c r="E296">
         <v>1.233523971130726</v>
       </c>
-      <c r="F296">
-        <v>-1</v>
+      <c r="F296" s="2">
+        <v>-0.2107</v>
       </c>
       <c r="G296">
         <v>-1.96416239605126E-2</v>
@@ -13792,7 +13816,7 @@
       <c r="E297">
         <v>1.0746974684871271</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="2">
         <v>-0.46968314401686539</v>
       </c>
       <c r="G297">
@@ -13821,7 +13845,7 @@
       <c r="E298">
         <v>1.034777032579463</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="2">
         <v>-0.4733132568719165</v>
       </c>
       <c r="G298">
@@ -13850,7 +13874,7 @@
       <c r="E299">
         <v>1.4662508609516789</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="2">
         <v>-0.41959348663387108</v>
       </c>
       <c r="G299">
@@ -13879,7 +13903,7 @@
       <c r="E300">
         <v>1.6528358564465659</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="2">
         <v>-0.4173393973848778</v>
       </c>
       <c r="G300">
@@ -13908,7 +13932,7 @@
       <c r="E301">
         <v>1.868196110194186</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="2">
         <v>-0.4505772736479644</v>
       </c>
       <c r="G301">
@@ -13937,7 +13961,7 @@
       <c r="E302">
         <v>1.2797740592613089</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="2">
         <v>-0.35542318193100031</v>
       </c>
       <c r="G302">
@@ -13966,7 +13990,7 @@
       <c r="E303">
         <v>1.2528232955078591</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="2">
         <v>-0.35709209481208981</v>
       </c>
       <c r="G303">
@@ -13995,7 +14019,7 @@
       <c r="E304">
         <v>1.3275833218452811</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="2">
         <v>-0.2517634291915356</v>
       </c>
       <c r="G304">
@@ -14024,7 +14048,7 @@
       <c r="E305">
         <v>0.98084429598965983</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="2">
         <v>-0.42744117405919491</v>
       </c>
       <c r="G305">
@@ -14053,7 +14077,7 @@
       <c r="E306">
         <v>0.93904076876347919</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="2">
         <v>-0.43079113791514861</v>
       </c>
       <c r="G306">
@@ -14082,8 +14106,8 @@
       <c r="E307">
         <v>8.8017615275202632E-2</v>
       </c>
-      <c r="F307">
-        <v>-1</v>
+      <c r="F307" s="2">
+        <v>-0.43340000000000001</v>
       </c>
       <c r="G307">
         <v>-2.1575504496425091E-2</v>
@@ -14111,8 +14135,8 @@
       <c r="E308">
         <v>1.4522709343920679</v>
       </c>
-      <c r="F308">
-        <v>-1</v>
+      <c r="F308" s="2">
+        <v>-0.33679999999999999</v>
       </c>
       <c r="G308">
         <v>-2.3355046118368791E-2</v>
@@ -14140,8 +14164,8 @@
       <c r="E309">
         <v>1.41529474835169</v>
       </c>
-      <c r="F309">
-        <v>-1</v>
+      <c r="F309" s="2">
+        <v>-0.34029999999999999</v>
       </c>
       <c r="G309">
         <v>-2.338294472669683E-2</v>
@@ -14169,7 +14193,7 @@
       <c r="E310">
         <v>0.71250591405002717</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="2">
         <v>-0.49437976716178239</v>
       </c>
       <c r="G310">
@@ -14198,7 +14222,7 @@
       <c r="E311">
         <v>0.49034231404755718</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="2">
         <v>-0.40781489253104969</v>
       </c>
       <c r="G311">
@@ -14227,7 +14251,7 @@
       <c r="E312">
         <v>0.44017327093465602</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="2">
         <v>-0.41289098436062571</v>
       </c>
       <c r="G312">
@@ -14256,7 +14280,7 @@
       <c r="E313">
         <v>1.7684595949547259</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="2">
         <v>-0.33213613222679411</v>
       </c>
       <c r="G313">
@@ -14285,7 +14309,7 @@
       <c r="E314">
         <v>1.738159519445537</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="2">
         <v>-0.34040159547267579</v>
       </c>
       <c r="G314">
@@ -14314,7 +14338,7 @@
       <c r="E315">
         <v>1.645326811551616</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="2">
         <v>-0.39918906742754168</v>
       </c>
       <c r="G315">
@@ -14343,7 +14367,7 @@
       <c r="E316">
         <v>-0.14361684368682079</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="2">
         <v>-0.46553380125600291</v>
       </c>
       <c r="G316">
@@ -14372,8 +14396,8 @@
       <c r="E317">
         <v>0.39709015295654332</v>
       </c>
-      <c r="F317">
-        <v>-1</v>
+      <c r="F317" s="2">
+        <v>-0.36399999999999999</v>
       </c>
       <c r="G317">
         <v>-2.1262427181315789E-2</v>
@@ -14401,7 +14425,7 @@
       <c r="E318">
         <v>0.44297340818707143</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="2">
         <v>-0.36912560524067228</v>
       </c>
       <c r="G318">
@@ -14430,7 +14454,7 @@
       <c r="E319">
         <v>0.41276785605562327</v>
       </c>
-      <c r="F319">
+      <c r="F319" s="2">
         <v>-0.37282010096374479</v>
       </c>
       <c r="G319">
@@ -14459,7 +14483,7 @@
       <c r="E320">
         <v>1.0069534997923959</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="2">
         <v>-0.3948772678762007</v>
       </c>
       <c r="G320">
@@ -14488,7 +14512,7 @@
       <c r="E321">
         <v>0.5310369069689802</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="2">
         <v>-0.42394893242350867</v>
       </c>
       <c r="G321">
@@ -14517,7 +14541,7 @@
       <c r="E322">
         <v>0.27128132155432111</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="2">
         <v>-0.51662959144918885</v>
       </c>
       <c r="G322">
@@ -14546,7 +14570,7 @@
       <c r="E323">
         <v>0.25795066073304962</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="2">
         <v>-0.51796129735622787</v>
       </c>
       <c r="G323">
@@ -14575,7 +14599,7 @@
       <c r="E324">
         <v>0.70077154709364298</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="2">
         <v>-0.32583131716648861</v>
       </c>
       <c r="G324">
@@ -14604,7 +14628,7 @@
       <c r="E325">
         <v>0.485356272449745</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="2">
         <v>-0.42812534850005579</v>
       </c>
       <c r="G325">
@@ -14633,7 +14657,7 @@
       <c r="E326">
         <v>0.92634454720529646</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="2">
         <v>-0.44148723285039632</v>
       </c>
       <c r="G326">
@@ -14662,7 +14686,7 @@
       <c r="E327">
         <v>0.89907321847613619</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="2">
         <v>-0.44328309836331231</v>
       </c>
       <c r="G327">
@@ -14691,7 +14715,7 @@
       <c r="E328">
         <v>1.704329384367631</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="2">
         <v>-0.27111945065474291</v>
       </c>
       <c r="G328">
@@ -14720,7 +14744,7 @@
       <c r="E329">
         <v>0.55808512805302246</v>
       </c>
-      <c r="F329">
+      <c r="F329" s="2">
         <v>-0.34120767285511622</v>
       </c>
       <c r="G329">
@@ -14749,8 +14773,8 @@
       <c r="E330">
         <v>0.51184571338077867</v>
       </c>
-      <c r="F330">
-        <v>-1</v>
+      <c r="F330" s="2">
+        <v>-0.34239999999999998</v>
       </c>
       <c r="G330">
         <v>-1.9044935522211311E-2</v>
@@ -14778,7 +14802,7 @@
       <c r="E331">
         <v>1.0999281083072461</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="2">
         <v>-0.40498442367601239</v>
       </c>
       <c r="G331">
@@ -14807,7 +14831,7 @@
       <c r="E332">
         <v>1.0151993587174819</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="2">
         <v>-0.4067935338653571</v>
       </c>
       <c r="G332">
@@ -14836,7 +14860,7 @@
       <c r="E333">
         <v>0.25256051814268798</v>
       </c>
-      <c r="F333">
+      <c r="F333" s="2">
         <v>-0.40193644488579938</v>
       </c>
       <c r="G333">
@@ -14865,7 +14889,7 @@
       <c r="E334">
         <v>0.21620904862414991</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="2">
         <v>-0.40518699492576582</v>
       </c>
       <c r="G334">
@@ -14894,7 +14918,7 @@
       <c r="E335">
         <v>-1.215232342277174</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="2">
         <v>-0.40857538035961272</v>
       </c>
       <c r="G335">
@@ -14923,7 +14947,7 @@
       <c r="E336">
         <v>-1.2628988987727869</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="2">
         <v>-0.41352897748246592</v>
       </c>
       <c r="G336">
@@ -14952,7 +14976,7 @@
       <c r="E337">
         <v>0.57576922434897548</v>
       </c>
-      <c r="F337">
+      <c r="F337" s="2">
         <v>-0.33880747852450732</v>
       </c>
       <c r="G337">
@@ -14981,7 +15005,7 @@
       <c r="E338">
         <v>0.52310503945762199</v>
       </c>
-      <c r="F338">
+      <c r="F338" s="2">
         <v>-0.34201123021949981</v>
       </c>
       <c r="G338">
@@ -15010,7 +15034,7 @@
       <c r="E339">
         <v>1.247188620269438</v>
       </c>
-      <c r="F339">
+      <c r="F339" s="2">
         <v>-0.28174541698941391</v>
       </c>
       <c r="G339">
@@ -15039,7 +15063,7 @@
       <c r="E340">
         <v>1.2148091750624359</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="2">
         <v>-0.28515726540161168</v>
       </c>
       <c r="G340">
@@ -15068,7 +15092,7 @@
       <c r="E341">
         <v>5.4512811187192062E-2</v>
       </c>
-      <c r="F341">
+      <c r="F341" s="2">
         <v>-0.48606261466532519</v>
       </c>
       <c r="G341">
@@ -15097,7 +15121,7 @@
       <c r="E342">
         <v>0.69082445099041434</v>
       </c>
-      <c r="F342">
+      <c r="F342" s="2">
         <v>-0.45150470939581899</v>
       </c>
       <c r="G342">
@@ -15126,7 +15150,7 @@
       <c r="E343">
         <v>0.65228528469860292</v>
       </c>
-      <c r="F343">
+      <c r="F343" s="2">
         <v>-0.45506061591341912</v>
       </c>
       <c r="G343">
@@ -15155,7 +15179,7 @@
       <c r="E344">
         <v>1.0148635224520339</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="2">
         <v>-0.40590132496513248</v>
       </c>
       <c r="G344">
@@ -15184,7 +15208,7 @@
       <c r="E345">
         <v>2.7956818249130961</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="2">
         <v>-0.2475656838293073</v>
       </c>
       <c r="G345">
@@ -15213,7 +15237,7 @@
       <c r="E346">
         <v>1.0455176379759361</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="2">
         <v>-0.37346337498730048</v>
       </c>
       <c r="G346">
@@ -15242,7 +15266,7 @@
       <c r="E347">
         <v>1.023081033460276</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="2">
         <v>-0.2659662703898259</v>
       </c>
       <c r="G347">
@@ -15271,7 +15295,7 @@
       <c r="E348">
         <v>0.97809949624966219</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="2">
         <v>-0.26892028254288602</v>
       </c>
       <c r="G348">
@@ -15300,7 +15324,7 @@
       <c r="E349">
         <v>0.97457345087145986</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="2">
         <v>-0.40601539712140777</v>
       </c>
       <c r="G349">
@@ -15329,7 +15353,7 @@
       <c r="E350">
         <v>0.7594323698297728</v>
       </c>
-      <c r="F350">
+      <c r="F350" s="2">
         <v>-0.44554644287621592</v>
       </c>
       <c r="G350">
@@ -15358,7 +15382,7 @@
       <c r="E351">
         <v>1.0302839456691231</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="2">
         <v>-0.31735930496375409</v>
       </c>
       <c r="G351">
@@ -15387,7 +15411,7 @@
       <c r="E352">
         <v>1.009120929523349</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="2">
         <v>-0.31856387419983301</v>
       </c>
       <c r="G352">
@@ -15416,7 +15440,7 @@
       <c r="E353">
         <v>0.1203598998698332</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="2">
         <v>-0.44035297239915072</v>
       </c>
       <c r="G353">
@@ -15445,7 +15469,7 @@
       <c r="E354">
         <v>0.61780780097426491</v>
       </c>
-      <c r="F354">
+      <c r="F354" s="2">
         <v>-0.32182566918325328</v>
       </c>
       <c r="G354">
@@ -15474,7 +15498,7 @@
       <c r="E355">
         <v>1.698922162210706</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="2">
         <v>-0.25345049687154952</v>
       </c>
       <c r="G355">
@@ -15503,7 +15527,7 @@
       <c r="E356">
         <v>1.036043271249832</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="2">
         <v>-0.25777484318256838</v>
       </c>
       <c r="G356">
@@ -15532,7 +15556,7 @@
       <c r="E357">
         <v>0.30889746274613777</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="2">
         <v>-0.48140399814039991</v>
       </c>
       <c r="G357">
@@ -15561,7 +15585,7 @@
       <c r="E358">
         <v>0.28646387732430972</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="2">
         <v>-0.48390858208955218</v>
       </c>
       <c r="G358">
@@ -15590,7 +15614,7 @@
       <c r="E359">
         <v>1.859542027960714</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="2">
         <v>-0.42358368457734558</v>
       </c>
       <c r="G359">
@@ -15619,7 +15643,7 @@
       <c r="E360">
         <v>0.1882250278100287</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="2">
         <v>-0.48543910639995441</v>
       </c>
       <c r="G360">
@@ -15648,7 +15672,7 @@
       <c r="E361">
         <v>0.14006833586480319</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="2">
         <v>-0.49025021570319238</v>
       </c>
       <c r="G361">
@@ -15677,7 +15701,7 @@
       <c r="E362">
         <v>0.48788624719503798</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="2">
         <v>-0.49629629629629629</v>
       </c>
       <c r="G362">
@@ -15706,7 +15730,7 @@
       <c r="E363">
         <v>0.50426538138732957</v>
       </c>
-      <c r="F363">
+      <c r="F363" s="2">
         <v>-0.49505747126436778</v>
       </c>
       <c r="G363">
@@ -15735,7 +15759,7 @@
       <c r="E364">
         <v>0.1980604893935774</v>
       </c>
-      <c r="F364">
+      <c r="F364" s="2">
         <v>-0.46708772743075683</v>
       </c>
       <c r="G364">
@@ -15764,7 +15788,7 @@
       <c r="E365">
         <v>1.651568602906879</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="2">
         <v>-0.1548224801326398</v>
       </c>
       <c r="G365">
@@ -15793,7 +15817,7 @@
       <c r="E366">
         <v>1.600435202435553</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="2">
         <v>-0.1555426917510854</v>
       </c>
       <c r="G366">
@@ -15822,7 +15846,7 @@
       <c r="E367">
         <v>0.5251796559154811</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="2">
         <v>-0.18527482823235461</v>
       </c>
       <c r="G367">
@@ -15851,7 +15875,7 @@
       <c r="E368">
         <v>0.62493261289726387</v>
       </c>
-      <c r="F368">
+      <c r="F368" s="2">
         <v>-0.37325968096499629</v>
       </c>
       <c r="G368">
@@ -15880,7 +15904,7 @@
       <c r="E369">
         <v>0.57442393628132715</v>
       </c>
-      <c r="F369">
+      <c r="F369" s="2">
         <v>-0.37929467885740242</v>
       </c>
       <c r="G369">
@@ -15909,7 +15933,7 @@
       <c r="E370">
         <v>1.743836114602473</v>
       </c>
-      <c r="F370">
+      <c r="F370" s="2">
         <v>-0.29248617783014602</v>
       </c>
       <c r="G370">
@@ -15938,7 +15962,7 @@
       <c r="E371">
         <v>0.99288888685151566</v>
       </c>
-      <c r="F371">
+      <c r="F371" s="2">
         <v>-0.36199581073097381</v>
       </c>
       <c r="G371">
@@ -15967,7 +15991,7 @@
       <c r="E372">
         <v>0.4892688174074174</v>
       </c>
-      <c r="F372">
+      <c r="F372" s="2">
         <v>-0.36685221763332732</v>
       </c>
       <c r="G372">
@@ -15996,7 +16020,7 @@
       <c r="E373">
         <v>0.43592448644486848</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="2">
         <v>-0.37240963855421683</v>
       </c>
       <c r="G373">
@@ -16025,7 +16049,7 @@
       <c r="E374">
         <v>0.78183583792829126</v>
       </c>
-      <c r="F374">
+      <c r="F374" s="2">
         <v>-0.43113743148003131</v>
       </c>
       <c r="G374">
@@ -16054,7 +16078,7 @@
       <c r="E375">
         <v>0.74587584485836977</v>
       </c>
-      <c r="F375">
+      <c r="F375" s="2">
         <v>-0.4351961364084368</v>
       </c>
       <c r="G375">
@@ -16083,7 +16107,7 @@
       <c r="E376">
         <v>0.66729735156988523</v>
       </c>
-      <c r="F376">
+      <c r="F376" s="2">
         <v>-0.27747891346217701</v>
       </c>
       <c r="G376">
@@ -16112,7 +16136,7 @@
       <c r="E377">
         <v>0.66499432644313872</v>
       </c>
-      <c r="F377">
+      <c r="F377" s="2">
         <v>-0.47335805601639502</v>
       </c>
       <c r="G377">
@@ -16141,7 +16165,7 @@
       <c r="E378">
         <v>1.327439488105522</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="2">
         <v>-0.36143976003999329</v>
       </c>
       <c r="G378">
@@ -16170,7 +16194,7 @@
       <c r="E379">
         <v>1.274331608413511</v>
       </c>
-      <c r="F379">
+      <c r="F379" s="2">
         <v>-0.3675838589049506</v>
       </c>
       <c r="G379">
@@ -16199,7 +16223,7 @@
       <c r="E380">
         <v>4.2917197173307282E-2</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="2">
         <v>-0.39061827571367091</v>
       </c>
       <c r="G380">
@@ -16228,7 +16252,7 @@
       <c r="E381">
         <v>-4.574844206046905E-3</v>
       </c>
-      <c r="F381">
+      <c r="F381" s="2">
         <v>-0.39585290080196522</v>
       </c>
       <c r="G381">
@@ -16257,7 +16281,7 @@
       <c r="E382">
         <v>1.0519667083481989</v>
       </c>
-      <c r="F382">
+      <c r="F382" s="2">
         <v>-0.41518817204301078</v>
       </c>
       <c r="G382">
@@ -16286,7 +16310,7 @@
       <c r="E383">
         <v>1.002563043203833</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="2">
         <v>-0.42078872475945239</v>
       </c>
       <c r="G383">
@@ -16315,7 +16339,7 @@
       <c r="E384">
         <v>5.397944516605007E-2</v>
       </c>
-      <c r="F384">
+      <c r="F384" s="2">
         <v>-0.4130967741935484</v>
       </c>
       <c r="G384">
@@ -16344,7 +16368,7 @@
       <c r="E385">
         <v>-0.41541160044372938</v>
       </c>
-      <c r="F385">
+      <c r="F385" s="2">
         <v>-0.45298681148176878</v>
       </c>
       <c r="G385">
@@ -16373,7 +16397,7 @@
       <c r="E386">
         <v>-0.45310907771707432</v>
       </c>
-      <c r="F386">
+      <c r="F386" s="2">
         <v>-0.4580182427691587</v>
       </c>
       <c r="G386">
@@ -16402,7 +16426,7 @@
       <c r="E387">
         <v>0.75304582564248101</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="2">
         <v>-0.38306831751618381</v>
       </c>
       <c r="G387">
@@ -16431,7 +16455,7 @@
       <c r="E388">
         <v>0.130467103579226</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="2">
         <v>-0.37570741369552918</v>
       </c>
       <c r="G388">
@@ -16460,7 +16484,7 @@
       <c r="E389">
         <v>8.8427841003777666E-2</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="2">
         <v>-0.37796622247559319</v>
       </c>
       <c r="G389">
@@ -16489,7 +16513,7 @@
       <c r="E390">
         <v>0.21751781554938759</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="2">
         <v>-0.33627690609477262</v>
       </c>
       <c r="G390">
@@ -16518,7 +16542,7 @@
       <c r="E391">
         <v>0.20535379891304051</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="2">
         <v>-0.33843483748816661</v>
       </c>
       <c r="G391">
@@ -16547,7 +16571,7 @@
       <c r="E392">
         <v>-1.46056328591387</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="2">
         <v>-0.56306649724692925</v>
       </c>
       <c r="G392">
@@ -16576,7 +16600,7 @@
       <c r="E393">
         <v>-0.24037734583152209</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="2">
         <v>-0.29666430092264018</v>
       </c>
       <c r="G393">
@@ -16605,7 +16629,7 @@
       <c r="E394">
         <v>-0.29807720114887259</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="2">
         <v>-0.3035007128148266</v>
       </c>
       <c r="G394">
@@ -16634,7 +16658,7 @@
       <c r="E395">
         <v>-0.16419741780037531</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="2">
         <v>-0.34925925925925938</v>
       </c>
       <c r="G395">
@@ -16663,7 +16687,7 @@
       <c r="E396">
         <v>-0.19991729155118121</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="2">
         <v>-0.35314711359404111</v>
       </c>
       <c r="G396">
@@ -16692,7 +16716,7 @@
       <c r="E397">
         <v>0.2812153454376598</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="2">
         <v>-0.45483515846804567</v>
       </c>
       <c r="G397">
@@ -16721,7 +16745,7 @@
       <c r="E398">
         <v>0.2413738103780832</v>
       </c>
-      <c r="F398">
+      <c r="F398" s="2">
         <v>-0.45870971501835778</v>
       </c>
       <c r="G398">
@@ -16750,7 +16774,7 @@
       <c r="E399">
         <v>0.76736837454930595</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="2">
         <v>-0.44502221324717278</v>
       </c>
       <c r="G399">
@@ -16779,7 +16803,7 @@
       <c r="E400">
         <v>0.91960285555816512</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="2">
         <v>-0.25204961109943252</v>
       </c>
       <c r="G400">
@@ -16808,7 +16832,7 @@
       <c r="E401">
         <v>0.8692774979346517</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="2">
         <v>-0.25351913418688549</v>
       </c>
       <c r="G401">
@@ -16837,7 +16861,7 @@
       <c r="E402">
         <v>-2.1043370662892031</v>
       </c>
-      <c r="F402">
+      <c r="F402" s="2">
         <v>-0.1220389805097452</v>
       </c>
       <c r="G402">
@@ -16866,7 +16890,7 @@
       <c r="E403">
         <v>-2.143169976520896</v>
       </c>
-      <c r="F403">
+      <c r="F403" s="2">
         <v>-0.12323838080959509</v>
       </c>
       <c r="G403">
@@ -16895,7 +16919,7 @@
       <c r="E404">
         <v>-0.48248514367164258</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="2">
         <v>-0.41061961563949628</v>
       </c>
       <c r="G404">
@@ -16924,7 +16948,7 @@
       <c r="E405">
         <v>-0.5341031100754301</v>
       </c>
-      <c r="F405">
+      <c r="F405" s="2">
         <v>-0.41656962235900841</v>
       </c>
       <c r="G405">
@@ -16953,7 +16977,7 @@
       <c r="E406">
         <v>0.45013637985060628</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="2">
         <v>-0.39878395715959158</v>
       </c>
       <c r="G406">
@@ -16982,7 +17006,7 @@
       <c r="E407">
         <v>0.10670024626378891</v>
       </c>
-      <c r="F407">
+      <c r="F407" s="2">
         <v>-0.49640890591333497</v>
       </c>
       <c r="G407">
@@ -17011,7 +17035,7 @@
       <c r="E408">
         <v>0.71853699844166141</v>
       </c>
-      <c r="F408">
+      <c r="F408" s="2">
         <v>-0.34663212435233171</v>
       </c>
       <c r="G408">
@@ -17040,7 +17064,7 @@
       <c r="E409">
         <v>0.30841228253127351</v>
       </c>
-      <c r="F409">
+      <c r="F409" s="2">
         <v>-0.2566720257234727</v>
       </c>
       <c r="G409">
@@ -17069,7 +17093,7 @@
       <c r="E410">
         <v>0.27441049595068667</v>
       </c>
-      <c r="F410">
+      <c r="F410" s="2">
         <v>-0.25761862420176229</v>
       </c>
       <c r="G410">
@@ -17098,7 +17122,7 @@
       <c r="E411">
         <v>0.14526037295127561</v>
       </c>
-      <c r="F411">
+      <c r="F411" s="2">
         <v>-0.22008163265306119</v>
       </c>
       <c r="G411">
@@ -17127,7 +17151,7 @@
       <c r="E412">
         <v>9.8952104309983982E-2</v>
       </c>
-      <c r="F412">
+      <c r="F412" s="2">
         <v>-0.22421708476799471</v>
       </c>
       <c r="G412">
@@ -17156,7 +17180,7 @@
       <c r="E413">
         <v>0.65272781928340828</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="2">
         <v>-0.30643118960346549</v>
       </c>
       <c r="G413">
@@ -17185,7 +17209,7 @@
       <c r="E414">
         <v>0.61708229611126031</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="2">
         <v>-0.30992703661557008</v>
       </c>
       <c r="G414">
@@ -17214,7 +17238,7 @@
       <c r="E415">
         <v>2.0832256818031678</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="2">
         <v>-0.44493794905290651</v>
       </c>
       <c r="G415">
@@ -17243,7 +17267,7 @@
       <c r="E416">
         <v>-3.5886690502428098E-2</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="2">
         <v>-0.46022690437601299</v>
       </c>
       <c r="G416">
@@ -17272,7 +17296,7 @@
       <c r="E417">
         <v>0.66694228198875805</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="2">
         <v>-0.48045323115258931</v>
       </c>
       <c r="G417">
@@ -17301,7 +17325,7 @@
       <c r="E418">
         <v>-0.14190681534040631</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="2">
         <v>-0.3849405933377068</v>
       </c>
       <c r="G418">
@@ -17330,7 +17354,7 @@
       <c r="E419">
         <v>-8.1950037914477705E-2</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="2">
         <v>-0.48326858002255918</v>
       </c>
       <c r="G419">
@@ -17359,7 +17383,7 @@
       <c r="E420">
         <v>0.46711173263641032</v>
       </c>
-      <c r="F420">
+      <c r="F420" s="2">
         <v>-0.3192561572858259</v>
       </c>
       <c r="G420">
@@ -17388,7 +17412,7 @@
       <c r="E421">
         <v>1.218264559667423E-3</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="2">
         <v>-0.32727125767862919</v>
       </c>
       <c r="G421">
@@ -17417,7 +17441,7 @@
       <c r="E422">
         <v>0.59295192854348222</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="2">
         <v>-0.31933130268470628</v>
       </c>
       <c r="G422">
@@ -17446,7 +17470,7 @@
       <c r="E423">
         <v>0.21658077376658361</v>
       </c>
-      <c r="F423">
+      <c r="F423" s="2">
         <v>-0.377980651314893</v>
       </c>
       <c r="G423">
@@ -17475,7 +17499,7 @@
       <c r="E424">
         <v>0.39148779990448251</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="2">
         <v>-0.26157677640283278</v>
       </c>
       <c r="G424">
@@ -17504,7 +17528,7 @@
       <c r="E425">
         <v>0.38786015696445969</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="2">
         <v>-0.42709499045487448</v>
       </c>
       <c r="G425">
@@ -17533,7 +17557,7 @@
       <c r="E426">
         <v>0.36096278083524508</v>
       </c>
-      <c r="F426">
+      <c r="F426" s="2">
         <v>-0.4282780096733585</v>
       </c>
       <c r="G426">
@@ -17562,7 +17586,7 @@
       <c r="E427">
         <v>-1.241638686500814</v>
       </c>
-      <c r="F427">
+      <c r="F427" s="2">
         <v>-0.4779652480483505</v>
       </c>
       <c r="G427">
@@ -17591,7 +17615,7 @@
       <c r="E428">
         <v>-1.2564662521511369</v>
       </c>
-      <c r="F428">
+      <c r="F428" s="2">
         <v>-0.47923322683706071</v>
       </c>
       <c r="G428">
@@ -17620,7 +17644,7 @@
       <c r="E429">
         <v>0.4412419813382169</v>
       </c>
-      <c r="F429">
+      <c r="F429" s="2">
         <v>-0.33976003883764477</v>
       </c>
       <c r="G429">
@@ -17649,7 +17673,7 @@
       <c r="E430">
         <v>0.40783597771869118</v>
       </c>
-      <c r="F430">
+      <c r="F430" s="2">
         <v>-0.34108689578094442</v>
       </c>
       <c r="G430">
@@ -17678,7 +17702,7 @@
       <c r="E431">
         <v>-0.56068310023334822</v>
       </c>
-      <c r="F431">
+      <c r="F431" s="2">
         <v>-0.47878228782287813</v>
       </c>
       <c r="G431">
@@ -17707,7 +17731,7 @@
       <c r="E432">
         <v>-0.58737290372741369</v>
       </c>
-      <c r="F432">
+      <c r="F432" s="2">
         <v>-0.48077813802686431</v>
       </c>
       <c r="G432">
@@ -17736,7 +17760,7 @@
       <c r="E433">
         <v>-0.52430121643173011</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="2">
         <v>-0.39203133237930249</v>
       </c>
       <c r="G433">
@@ -17765,7 +17789,7 @@
       <c r="E434">
         <v>-0.58037861531322521</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="2">
         <v>-0.39798774491262578</v>
       </c>
       <c r="G434">
@@ -17794,7 +17818,7 @@
       <c r="E435">
         <v>-0.24293968360149021</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="2">
         <v>-0.37351387054161173</v>
       </c>
       <c r="G435">
@@ -17823,7 +17847,7 @@
       <c r="E436">
         <v>-0.72467959415530636</v>
       </c>
-      <c r="F436">
+      <c r="F436" s="2">
         <v>-0.38115907081424322</v>
       </c>
       <c r="G436">
@@ -17852,7 +17876,7 @@
       <c r="E437">
         <v>-0.77695848646525933</v>
       </c>
-      <c r="F437">
+      <c r="F437" s="2">
         <v>-0.38658172728005802</v>
       </c>
       <c r="G437">
@@ -17881,7 +17905,7 @@
       <c r="E438">
         <v>-0.39427344369282052</v>
       </c>
-      <c r="F438">
+      <c r="F438" s="2">
         <v>-0.31718285956724662</v>
       </c>
       <c r="G438">
@@ -17910,7 +17934,7 @@
       <c r="E439">
         <v>-1.305810378316129</v>
       </c>
-      <c r="F439">
+      <c r="F439" s="2">
         <v>-0.53787554566464091</v>
       </c>
       <c r="G439">
@@ -17939,7 +17963,7 @@
       <c r="E440">
         <v>-1.340061675859509</v>
       </c>
-      <c r="F440">
+      <c r="F440" s="2">
         <v>-0.54138760089301052</v>
       </c>
       <c r="G440">
@@ -17968,7 +17992,7 @@
       <c r="E441">
         <v>-0.4641578661601638</v>
       </c>
-      <c r="F441">
+      <c r="F441" s="2">
         <v>-0.32055122828040739</v>
       </c>
       <c r="G441">
@@ -17997,7 +18021,7 @@
       <c r="E442">
         <v>0.78371667812184143</v>
       </c>
-      <c r="F442">
+      <c r="F442" s="2">
         <v>-0.34796429054511019</v>
       </c>
       <c r="G442">
@@ -18026,7 +18050,7 @@
       <c r="E443">
         <v>-0.88420053956651379</v>
       </c>
-      <c r="F443">
+      <c r="F443" s="2">
         <v>-0.44845926551287468</v>
       </c>
       <c r="G443">
@@ -18055,7 +18079,7 @@
       <c r="E444">
         <v>-0.60197866621601837</v>
       </c>
-      <c r="F444">
+      <c r="F444" s="2">
         <v>-0.39983825313384552</v>
       </c>
       <c r="G444">
@@ -18084,7 +18108,7 @@
       <c r="E445">
         <v>-0.67007635066212956</v>
       </c>
-      <c r="F445">
+      <c r="F445" s="2">
         <v>-0.50579759862778728</v>
       </c>
       <c r="G445">
@@ -18113,7 +18137,7 @@
       <c r="E446">
         <v>-1.450418125231187</v>
       </c>
-      <c r="F446">
+      <c r="F446" s="2">
         <v>-0.50490236467001726</v>
       </c>
       <c r="G446">
@@ -18142,7 +18166,7 @@
       <c r="E447">
         <v>-1.496455316430795</v>
       </c>
-      <c r="F447">
+      <c r="F447" s="2">
         <v>-0.50969872059430466</v>
       </c>
       <c r="G447">
@@ -18171,7 +18195,7 @@
       <c r="E448">
         <v>-0.47190299132548219</v>
       </c>
-      <c r="F448">
+      <c r="F448" s="2">
         <v>-0.35029585798816559</v>
       </c>
       <c r="G448">
@@ -18200,7 +18224,7 @@
       <c r="E449">
         <v>0.32449092275060543</v>
       </c>
-      <c r="F449">
+      <c r="F449" s="2">
         <v>-0.29941777904004552</v>
       </c>
       <c r="G449">
@@ -18229,7 +18253,7 @@
       <c r="E450">
         <v>0.31221205159504839</v>
       </c>
-      <c r="F450">
+      <c r="F450" s="2">
         <v>-0.30104470186909249</v>
       </c>
       <c r="G450">
@@ -18258,7 +18282,7 @@
       <c r="E451">
         <v>-0.39304440995700662</v>
       </c>
-      <c r="F451">
+      <c r="F451" s="2">
         <v>-0.4506747492242188</v>
       </c>
       <c r="G451">
@@ -18287,7 +18311,7 @@
       <c r="E452">
         <v>-9.244952808566885E-2</v>
       </c>
-      <c r="F452">
+      <c r="F452" s="2">
         <v>-0.38559775891900788</v>
       </c>
       <c r="G452">
@@ -18316,7 +18340,7 @@
       <c r="E453">
         <v>-1.0428011377361559</v>
       </c>
-      <c r="F453">
+      <c r="F453" s="2">
         <v>-0.52967763943373702</v>
       </c>
       <c r="G453">
@@ -18345,7 +18369,7 @@
       <c r="E454">
         <v>-1.063099509251705</v>
       </c>
-      <c r="F454">
+      <c r="F454" s="2">
         <v>-0.53165313968389571</v>
       </c>
       <c r="G454">
@@ -18374,7 +18398,7 @@
       <c r="E455">
         <v>-1.677272131577646</v>
       </c>
-      <c r="F455">
+      <c r="F455" s="2">
         <v>-0.50117924528301883</v>
       </c>
       <c r="G455">
@@ -18403,7 +18427,7 @@
       <c r="E456">
         <v>-0.82289545798992147</v>
       </c>
-      <c r="F456">
+      <c r="F456" s="2">
         <v>-0.35450578956200712</v>
       </c>
       <c r="G456">
@@ -18432,7 +18456,7 @@
       <c r="E457">
         <v>1.053952984615111</v>
       </c>
-      <c r="F457">
+      <c r="F457" s="2">
         <v>-0.31081544084056639</v>
       </c>
       <c r="G457">
@@ -18461,7 +18485,7 @@
       <c r="E458">
         <v>-0.19673878192980759</v>
       </c>
-      <c r="F458">
+      <c r="F458" s="2">
         <v>-0.41235101414929948</v>
       </c>
       <c r="G458">
@@ -18490,7 +18514,7 @@
       <c r="E459">
         <v>-5.8653484597369653E-2</v>
       </c>
-      <c r="F459">
+      <c r="F459" s="2">
         <v>-0.43252032520325201</v>
       </c>
       <c r="G459">
@@ -18519,7 +18543,7 @@
       <c r="E460">
         <v>-8.7554872508148029E-2</v>
       </c>
-      <c r="F460">
+      <c r="F460" s="2">
         <v>-0.43638516764118129</v>
       </c>
       <c r="G460">
@@ -18548,7 +18572,7 @@
       <c r="E461">
         <v>0.33719856394566938</v>
       </c>
-      <c r="F461">
+      <c r="F461" s="2">
         <v>-0.40140071408953581</v>
       </c>
       <c r="G461">
@@ -18577,7 +18601,7 @@
       <c r="E462">
         <v>0.31338135340177298</v>
       </c>
-      <c r="F462">
+      <c r="F462" s="2">
         <v>-0.40318357221609702</v>
       </c>
       <c r="G462">
@@ -18606,7 +18630,7 @@
       <c r="E463">
         <v>-0.908541747099887</v>
       </c>
-      <c r="F463">
+      <c r="F463" s="2">
         <v>-0.37903225806451601</v>
       </c>
       <c r="G463">
@@ -18635,7 +18659,7 @@
       <c r="E464">
         <v>-0.41655232487220839</v>
       </c>
-      <c r="F464">
+      <c r="F464" s="2">
         <v>-0.42021924482338607</v>
       </c>
       <c r="G464">
@@ -18664,7 +18688,7 @@
       <c r="E465">
         <v>-0.51058562115812833</v>
       </c>
-      <c r="F465">
+      <c r="F465" s="2">
         <v>-0.4974339235309212</v>
       </c>
       <c r="G465">
@@ -18693,7 +18717,7 @@
       <c r="E466">
         <v>-1.1041598202244201</v>
       </c>
-      <c r="F466">
+      <c r="F466" s="2">
         <v>-0.46617812852311158</v>
       </c>
       <c r="G466">
@@ -18722,7 +18746,7 @@
       <c r="E467">
         <v>-1.130331051878251</v>
       </c>
-      <c r="F467">
+      <c r="F467" s="2">
         <v>-0.46876259572752921</v>
       </c>
       <c r="G467">
@@ -18751,7 +18775,7 @@
       <c r="E468">
         <v>-0.79990426559574768</v>
       </c>
-      <c r="F468">
+      <c r="F468" s="2">
         <v>-0.36685653257386958</v>
       </c>
       <c r="G468">
@@ -18780,7 +18804,7 @@
       <c r="E469">
         <v>-0.83290497336275049</v>
       </c>
-      <c r="F469">
+      <c r="F469" s="2">
         <v>-0.36883928571428581</v>
       </c>
       <c r="G469">
@@ -18809,7 +18833,7 @@
       <c r="E470">
         <v>0.5640240704591245</v>
       </c>
-      <c r="F470">
+      <c r="F470" s="2">
         <v>-0.42053149354797492</v>
       </c>
       <c r="G470">
@@ -18838,7 +18862,7 @@
       <c r="E471">
         <v>0.53737500087315337</v>
       </c>
-      <c r="F471">
+      <c r="F471" s="2">
         <v>-0.42177963379376798</v>
       </c>
       <c r="G471">
@@ -18867,7 +18891,7 @@
       <c r="E472">
         <v>0.39927689881651018</v>
       </c>
-      <c r="F472">
+      <c r="F472" s="2">
         <v>-0.36540452595769862</v>
       </c>
       <c r="G472">
@@ -18896,7 +18920,7 @@
       <c r="E473">
         <v>0.34453668883208061</v>
       </c>
-      <c r="F473">
+      <c r="F473" s="2">
         <v>-0.37109346002523952</v>
       </c>
       <c r="G473">
@@ -18925,7 +18949,7 @@
       <c r="E474">
         <v>0.90708311482961879</v>
       </c>
-      <c r="F474">
+      <c r="F474" s="2">
         <v>-0.37088388214904677</v>
       </c>
       <c r="G474">
@@ -18954,7 +18978,7 @@
       <c r="E475">
         <v>-0.30260482961254248</v>
       </c>
-      <c r="F475">
+      <c r="F475" s="2">
         <v>-0.35358377868594781</v>
       </c>
       <c r="G475">
@@ -18983,7 +19007,7 @@
       <c r="E476">
         <v>-0.32742875189750842</v>
       </c>
-      <c r="F476">
+      <c r="F476" s="2">
         <v>-0.35549952726126699</v>
       </c>
       <c r="G476">
@@ -19012,7 +19036,7 @@
       <c r="E477">
         <v>-1.320151375109555</v>
       </c>
-      <c r="F477">
+      <c r="F477" s="2">
         <v>-0.3361518041490511</v>
       </c>
       <c r="G477">
@@ -19041,7 +19065,7 @@
       <c r="E478">
         <v>-1.344206536311306</v>
       </c>
-      <c r="F478">
+      <c r="F478" s="2">
         <v>-0.33819041055429749</v>
       </c>
       <c r="G478">
@@ -19070,7 +19094,7 @@
       <c r="E479">
         <v>-2.2365621683914352</v>
       </c>
-      <c r="F479">
+      <c r="F479" s="2">
         <v>-0.398487378450054</v>
       </c>
       <c r="G479">
@@ -19099,7 +19123,7 @@
       <c r="E480">
         <v>0.50935255222674636</v>
       </c>
-      <c r="F480">
+      <c r="F480" s="2">
         <v>-0.50864690231851006</v>
       </c>
       <c r="G480">
@@ -19128,7 +19152,7 @@
       <c r="E481">
         <v>9.6534492284461662E-2</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="2">
         <v>-0.38894180810529971</v>
       </c>
       <c r="G481">
@@ -19157,7 +19181,7 @@
       <c r="E482">
         <v>-0.34776451234073091</v>
       </c>
-      <c r="F482">
+      <c r="F482" s="2">
         <v>-0.44235656526761652</v>
       </c>
       <c r="G482">
@@ -19186,7 +19210,7 @@
       <c r="E483">
         <v>-0.5457086472979753</v>
       </c>
-      <c r="F483">
+      <c r="F483" s="2">
         <v>-0.38024033865901952</v>
       </c>
       <c r="G483">
@@ -19215,7 +19239,7 @@
       <c r="E484">
         <v>1.3177481617843391E-2</v>
       </c>
-      <c r="F484">
+      <c r="F484" s="2">
         <v>-0.40081563558017858</v>
       </c>
       <c r="G484">
@@ -19244,7 +19268,7 @@
       <c r="E485">
         <v>-1.93052798858667</v>
       </c>
-      <c r="F485">
+      <c r="F485" s="2">
         <v>-0.33753514981091831</v>
       </c>
       <c r="G485">
@@ -19273,7 +19297,7 @@
       <c r="E486">
         <v>-1.957057621462948</v>
       </c>
-      <c r="F486">
+      <c r="F486" s="2">
         <v>-0.33960799534251901</v>
       </c>
       <c r="G486">
@@ -19302,7 +19326,7 @@
       <c r="E487">
         <v>-0.92546355999986851</v>
       </c>
-      <c r="F487">
+      <c r="F487" s="2">
         <v>-0.34767866458007302</v>
       </c>
       <c r="G487">
@@ -19331,7 +19355,7 @@
       <c r="E488">
         <v>-0.97494319897611326</v>
       </c>
-      <c r="F488">
+      <c r="F488" s="2">
         <v>-0.35332520891364899</v>
       </c>
       <c r="G488">
@@ -19360,7 +19384,7 @@
       <c r="E489">
         <v>1.2741295789915681</v>
       </c>
-      <c r="F489">
+      <c r="F489" s="2">
         <v>-0.2027432490355765</v>
       </c>
       <c r="G489">
@@ -19389,7 +19413,7 @@
       <c r="E490">
         <v>-2.317569419685082</v>
       </c>
-      <c r="F490">
+      <c r="F490" s="2">
         <v>-0.38437001594896342</v>
       </c>
       <c r="G490">
@@ -19418,7 +19442,7 @@
       <c r="E491">
         <v>-2.3558540370903072</v>
       </c>
-      <c r="F491">
+      <c r="F491" s="2">
         <v>-0.38739277877518452</v>
       </c>
       <c r="G491">
@@ -19447,7 +19471,7 @@
       <c r="E492">
         <v>-1.511186311974454</v>
       </c>
-      <c r="F492">
+      <c r="F492" s="2">
         <v>-0.56973608954979982</v>
       </c>
       <c r="G492">
@@ -19476,8 +19500,8 @@
       <c r="E493">
         <v>-1.527471246517395</v>
       </c>
-      <c r="F493">
-        <v>-1</v>
+      <c r="F493" s="2">
+        <v>-0.57110000000000005</v>
       </c>
       <c r="G493">
         <v>-3.341182828234153E-2</v>
@@ -19505,7 +19529,7 @@
       <c r="E494">
         <v>-0.90475117539434946</v>
       </c>
-      <c r="F494">
+      <c r="F494" s="2">
         <v>-0.46142920550377281</v>
       </c>
       <c r="G494">
@@ -19534,7 +19558,7 @@
       <c r="E495">
         <v>-0.92770198665646719</v>
       </c>
-      <c r="F495">
+      <c r="F495" s="2">
         <v>-0.46307829181494659</v>
       </c>
       <c r="G495">
@@ -19563,7 +19587,7 @@
       <c r="E496">
         <v>-0.91921592723187784</v>
       </c>
-      <c r="F496">
+      <c r="F496" s="2">
         <v>-0.32322953981813168</v>
       </c>
       <c r="G496">
@@ -19592,7 +19616,7 @@
       <c r="E497">
         <v>-0.97264461024917659</v>
       </c>
-      <c r="F497">
+      <c r="F497" s="2">
         <v>-0.38384730935760358</v>
       </c>
       <c r="G497">
@@ -19621,7 +19645,7 @@
       <c r="E498">
         <v>-0.28493081349029442</v>
       </c>
-      <c r="F498">
+      <c r="F498" s="2">
         <v>-0.25840015273004968</v>
       </c>
       <c r="G498">
@@ -19650,7 +19674,7 @@
       <c r="E499">
         <v>-0.69214248667193823</v>
       </c>
-      <c r="F499">
+      <c r="F499" s="2">
         <v>-0.29072408467338973</v>
       </c>
       <c r="G499">
@@ -19679,7 +19703,7 @@
       <c r="E500">
         <v>-0.72530238660482038</v>
       </c>
-      <c r="F500">
+      <c r="F500" s="2">
         <v>-0.29172740524781338</v>
       </c>
       <c r="G500">
@@ -19708,7 +19732,7 @@
       <c r="E501">
         <v>-0.88499700289439698</v>
       </c>
-      <c r="F501">
+      <c r="F501" s="2">
         <v>-0.37492095040202372</v>
       </c>
       <c r="G501">
@@ -19737,7 +19761,7 @@
       <c r="E502">
         <v>-0.92980051545237852</v>
       </c>
-      <c r="F502">
+      <c r="F502" s="2">
         <v>-0.37669549385525719</v>
       </c>
       <c r="G502">
@@ -19766,7 +19790,7 @@
       <c r="E503">
         <v>-0.49983566322268691</v>
       </c>
-      <c r="F503">
+      <c r="F503" s="2">
         <v>-0.37542394990868772</v>
       </c>
       <c r="G503">
@@ -19795,7 +19819,7 @@
       <c r="E504">
         <v>-0.84448399625432247</v>
       </c>
-      <c r="F504">
+      <c r="F504" s="2">
         <v>-0.39975148664240701</v>
       </c>
       <c r="G504">
@@ -19824,7 +19848,7 @@
       <c r="E505">
         <v>-0.86780981964308457</v>
       </c>
-      <c r="F505">
+      <c r="F505" s="2">
         <v>-0.40348227769387929</v>
       </c>
       <c r="G505">
@@ -19853,7 +19877,7 @@
       <c r="E506">
         <v>-2.3700632101523831</v>
       </c>
-      <c r="F506">
+      <c r="F506" s="2">
         <v>-0.51292608196093448</v>
       </c>
       <c r="G506">
@@ -19882,7 +19906,7 @@
       <c r="E507">
         <v>-2.400395323207988</v>
       </c>
-      <c r="F507">
+      <c r="F507" s="2">
         <v>-0.51530269596085576</v>
       </c>
       <c r="G507">
@@ -19911,7 +19935,7 @@
       <c r="E508">
         <v>-1.3394279412803889</v>
       </c>
-      <c r="F508">
+      <c r="F508" s="2">
         <v>-0.33217924621624279</v>
       </c>
       <c r="G508">
@@ -19940,7 +19964,7 @@
       <c r="E509">
         <v>-1.388629201059044</v>
       </c>
-      <c r="F509">
+      <c r="F509" s="2">
         <v>-0.3380490700435298</v>
       </c>
       <c r="G509">
@@ -19969,7 +19993,7 @@
       <c r="E510">
         <v>0.33489314760768391</v>
       </c>
-      <c r="F510">
+      <c r="F510" s="2">
         <v>-0.38231292517006799</v>
       </c>
       <c r="G510">
@@ -19998,7 +20022,7 @@
       <c r="E511">
         <v>-0.10644689239199991</v>
       </c>
-      <c r="F511">
+      <c r="F511" s="2">
         <v>-0.31068217874140658</v>
       </c>
       <c r="G511">
@@ -20027,7 +20051,7 @@
       <c r="E512">
         <v>-1.1979286401457869</v>
       </c>
-      <c r="F512">
+      <c r="F512" s="2">
         <v>-0.35629061984673582</v>
       </c>
       <c r="G512">
@@ -20056,7 +20080,7 @@
       <c r="E513">
         <v>-1.2207867283649509</v>
       </c>
-      <c r="F513">
+      <c r="F513" s="2">
         <v>-0.35936742019986412</v>
       </c>
       <c r="G513">
@@ -20085,7 +20109,7 @@
       <c r="E514">
         <v>1.146418030425618</v>
       </c>
-      <c r="F514">
+      <c r="F514" s="2">
         <v>-0.25952084198864422</v>
       </c>
       <c r="G514">
@@ -20114,7 +20138,7 @@
       <c r="E515">
         <v>1.1130585903589021</v>
       </c>
-      <c r="F515">
+      <c r="F515" s="2">
         <v>-0.26064569997216808</v>
       </c>
       <c r="G515">
@@ -20143,7 +20167,7 @@
       <c r="E516">
         <v>-1.294553355352035</v>
       </c>
-      <c r="F516">
+      <c r="F516" s="2">
         <v>-0.42591227423516398</v>
       </c>
       <c r="G516">
@@ -20172,7 +20196,7 @@
       <c r="E517">
         <v>-1.3203526022288481</v>
       </c>
-      <c r="F517">
+      <c r="F517" s="2">
         <v>-0.42792543373938718</v>
       </c>
       <c r="G517">
@@ -20201,7 +20225,7 @@
       <c r="E518">
         <v>-1.4780333662192759</v>
       </c>
-      <c r="F518">
+      <c r="F518" s="2">
         <v>-0.33495808149736789</v>
       </c>
       <c r="G518">
@@ -20230,7 +20254,7 @@
       <c r="E519">
         <v>-1.5154060451244331</v>
       </c>
-      <c r="F519">
+      <c r="F519" s="2">
         <v>-0.33831574833919498</v>
       </c>
       <c r="G519">
@@ -20259,7 +20283,7 @@
       <c r="E520">
         <v>0.75103459609949019</v>
       </c>
-      <c r="F520">
+      <c r="F520" s="2">
         <v>-0.40067602704108157</v>
       </c>
       <c r="G520">
@@ -20288,7 +20312,7 @@
       <c r="E521">
         <v>-1.939219156080549</v>
       </c>
-      <c r="F521">
+      <c r="F521" s="2">
         <v>-0.30704028719585158</v>
       </c>
       <c r="G521">
@@ -20317,7 +20341,7 @@
       <c r="E522">
         <v>-0.93960814252280178</v>
       </c>
-      <c r="F522">
+      <c r="F522" s="2">
         <v>-0.38193636010865339</v>
       </c>
       <c r="G522">
@@ -20346,7 +20370,7 @@
       <c r="E523">
         <v>-0.96017083314308549</v>
       </c>
-      <c r="F523">
+      <c r="F523" s="2">
         <v>-0.3848617176128093</v>
       </c>
       <c r="G523">
@@ -20375,7 +20399,7 @@
       <c r="E524">
         <v>-1.651900955517797</v>
       </c>
-      <c r="F524">
+      <c r="F524" s="2">
         <v>-0.27989265480568531</v>
       </c>
       <c r="G524">
@@ -20404,7 +20428,7 @@
       <c r="E525">
         <v>-1.6863135556446891</v>
       </c>
-      <c r="F525">
+      <c r="F525" s="2">
         <v>-0.28314271506713079</v>
       </c>
       <c r="G525">
@@ -20433,7 +20457,7 @@
       <c r="E526">
         <v>-0.86200385588830952</v>
       </c>
-      <c r="F526">
+      <c r="F526" s="2">
         <v>-0.20019910403185659</v>
       </c>
       <c r="G526">
@@ -20462,7 +20486,7 @@
       <c r="E527">
         <v>-0.9304822026563544</v>
       </c>
-      <c r="F527">
+      <c r="F527" s="2">
         <v>-0.20309999999999989</v>
       </c>
       <c r="G527">
@@ -20491,7 +20515,7 @@
       <c r="E528">
         <v>-1.5900727672544019</v>
       </c>
-      <c r="F528">
+      <c r="F528" s="2">
         <v>-0.29313184151893817</v>
       </c>
       <c r="G528">
@@ -20520,7 +20544,7 @@
       <c r="E529">
         <v>-1.7881737253684851</v>
       </c>
-      <c r="F529">
+      <c r="F529" s="2">
         <v>-0.32612101037791269</v>
       </c>
       <c r="G529">
@@ -20549,7 +20573,7 @@
       <c r="E530">
         <v>-1.82185183105388</v>
       </c>
-      <c r="F530">
+      <c r="F530" s="2">
         <v>-0.32987267384916741</v>
       </c>
       <c r="G530">
@@ -20578,7 +20602,7 @@
       <c r="E531">
         <v>-0.61000190814555644</v>
       </c>
-      <c r="F531">
+      <c r="F531" s="2">
         <v>-0.39828128988343398</v>
       </c>
       <c r="G531">
@@ -20607,7 +20631,7 @@
       <c r="E532">
         <v>-0.66267950603548698</v>
       </c>
-      <c r="F532">
+      <c r="F532" s="2">
         <v>-0.40035937366304442</v>
       </c>
       <c r="G532">
@@ -20636,7 +20660,7 @@
       <c r="E533">
         <v>0.61437693384790037</v>
       </c>
-      <c r="F533">
+      <c r="F533" s="2">
         <v>-0.25618811881188119</v>
       </c>
       <c r="G533">
@@ -20665,7 +20689,7 @@
       <c r="E534">
         <v>-0.66119245670316817</v>
       </c>
-      <c r="F534">
+      <c r="F534" s="2">
         <v>-0.4102954872576412</v>
       </c>
       <c r="G534">
@@ -20694,7 +20718,7 @@
       <c r="E535">
         <v>-0.68575295225631883</v>
       </c>
-      <c r="F535">
+      <c r="F535" s="2">
         <v>-0.45824446267432328</v>
       </c>
       <c r="G535">
@@ -20723,7 +20747,7 @@
       <c r="E536">
         <v>-1.697260115623384</v>
       </c>
-      <c r="F536">
+      <c r="F536" s="2">
         <v>-0.23330000000000001</v>
       </c>
       <c r="G536">
@@ -20752,7 +20776,7 @@
       <c r="E537">
         <v>-1.7068019691097289</v>
       </c>
-      <c r="F537">
+      <c r="F537" s="2">
         <v>-0.2339</v>
       </c>
       <c r="G537">
@@ -20781,7 +20805,7 @@
       <c r="E538">
         <v>-1.6511918404238459</v>
       </c>
-      <c r="F538">
+      <c r="F538" s="2">
         <v>-0.38437588451740728</v>
       </c>
       <c r="G538">
@@ -20810,7 +20834,7 @@
       <c r="E539">
         <v>-1.6986975041208161</v>
       </c>
-      <c r="F539">
+      <c r="F539" s="2">
         <v>-0.38663258543974238</v>
       </c>
       <c r="G539">
@@ -20839,7 +20863,7 @@
       <c r="E540">
         <v>-0.35140100984818817</v>
       </c>
-      <c r="F540">
+      <c r="F540" s="2">
         <v>-0.30058252427184468</v>
       </c>
       <c r="G540">
@@ -20868,7 +20892,7 @@
       <c r="E541">
         <v>-1.536646810500115E-2</v>
       </c>
-      <c r="F541">
+      <c r="F541" s="2">
         <v>-0.40180804580382701</v>
       </c>
       <c r="G541">
@@ -20897,7 +20921,7 @@
       <c r="E542">
         <v>0.86482379769935491</v>
       </c>
-      <c r="F542">
+      <c r="F542" s="2">
         <v>-0.34512077294685989</v>
       </c>
       <c r="G542">
@@ -20926,7 +20950,7 @@
       <c r="E543">
         <v>0.83601114163468637</v>
       </c>
-      <c r="F543">
+      <c r="F543" s="2">
         <v>-0.34773329884239801</v>
       </c>
       <c r="G543">
@@ -20955,7 +20979,7 @@
       <c r="E544">
         <v>0.96300923058224164</v>
       </c>
-      <c r="F544">
+      <c r="F544" s="2">
         <v>-0.47155992729605478</v>
       </c>
       <c r="G544">
@@ -20984,7 +21008,7 @@
       <c r="E545">
         <v>0.9481444819456406</v>
       </c>
-      <c r="F545">
+      <c r="F545" s="2">
         <v>-0.47279258028199211</v>
       </c>
       <c r="G545">
@@ -21013,7 +21037,7 @@
       <c r="E546">
         <v>-1.109796411415959E-2</v>
       </c>
-      <c r="F546">
+      <c r="F546" s="2">
         <v>-0.30643668489692882</v>
       </c>
       <c r="G546">
@@ -21042,7 +21066,7 @@
       <c r="E547">
         <v>-3.9548290309550253E-2</v>
       </c>
-      <c r="F547">
+      <c r="F547" s="2">
         <v>-0.30777683854606941</v>
       </c>
       <c r="G547">
@@ -21071,7 +21095,7 @@
       <c r="E548">
         <v>-0.8255261013289229</v>
       </c>
-      <c r="F548">
+      <c r="F548" s="2">
         <v>-0.24575434439178509</v>
       </c>
       <c r="G548">
@@ -21100,7 +21124,7 @@
       <c r="E549">
         <v>-0.86033664501543061</v>
       </c>
-      <c r="F549">
+      <c r="F549" s="2">
         <v>-0.24916057673316219</v>
       </c>
       <c r="G549">
@@ -21129,7 +21153,7 @@
       <c r="E550">
         <v>-1.2882051456357151</v>
       </c>
-      <c r="F550">
+      <c r="F550" s="2">
         <v>-0.37883478750351818</v>
       </c>
       <c r="G550">
@@ -21158,7 +21182,7 @@
       <c r="E551">
         <v>-1.320469448460146</v>
       </c>
-      <c r="F551">
+      <c r="F551" s="2">
         <v>-0.38328016513417151</v>
       </c>
       <c r="G551">
@@ -21187,7 +21211,7 @@
       <c r="E552">
         <v>-1.9678726480145481</v>
       </c>
-      <c r="F552">
+      <c r="F552" s="2">
         <v>-0.25409999999999999</v>
       </c>
       <c r="G552">
@@ -21216,7 +21240,7 @@
       <c r="E553">
         <v>-2.0138869022733181</v>
       </c>
-      <c r="F553">
+      <c r="F553" s="2">
         <v>-0.25729999999999997</v>
       </c>
       <c r="G553">
@@ -21245,7 +21269,7 @@
       <c r="E554">
         <v>2.026739797263188</v>
       </c>
-      <c r="F554">
+      <c r="F554" s="2">
         <v>-0.26656751933372991</v>
       </c>
       <c r="G554">
@@ -21274,7 +21298,7 @@
       <c r="E555">
         <v>1.990151348956033</v>
       </c>
-      <c r="F555">
+      <c r="F555" s="2">
         <v>-0.26770665232203689</v>
       </c>
       <c r="G555">
@@ -21303,7 +21327,7 @@
       <c r="E556">
         <v>-0.7010441734033952</v>
       </c>
-      <c r="F556">
+      <c r="F556" s="2">
         <v>-0.43532608695652181</v>
       </c>
       <c r="G556">
@@ -21332,7 +21356,7 @@
       <c r="E557">
         <v>-0.72734251659180016</v>
       </c>
-      <c r="F557">
+      <c r="F557" s="2">
         <v>-0.43705722070844688</v>
       </c>
       <c r="G557">
@@ -21361,7 +21385,7 @@
       <c r="E558">
         <v>-1.878919520209579</v>
       </c>
-      <c r="F558">
+      <c r="F558" s="2">
         <v>-0.40507302075326668</v>
       </c>
       <c r="G558">
@@ -21390,7 +21414,7 @@
       <c r="E559">
         <v>-1.9127801545461429</v>
       </c>
-      <c r="F559">
+      <c r="F559" s="2">
         <v>-0.40655105973025052</v>
       </c>
       <c r="G559">
@@ -21419,7 +21443,7 @@
       <c r="E560">
         <v>7.8858017561713678E-2</v>
       </c>
-      <c r="F560">
+      <c r="F560" s="2">
         <v>-0.38538081699835403</v>
       </c>
       <c r="G560">
@@ -21448,7 +21472,7 @@
       <c r="E561">
         <v>6.0326653428472141E-2</v>
       </c>
-      <c r="F561">
+      <c r="F561" s="2">
         <v>-0.38668862768585771</v>
       </c>
       <c r="G561">
@@ -21477,7 +21501,7 @@
       <c r="E562">
         <v>-2.416843462555105</v>
       </c>
-      <c r="F562">
+      <c r="F562" s="2">
         <v>-0.33263681592039801</v>
       </c>
       <c r="G562">
@@ -21506,7 +21530,7 @@
       <c r="E563">
         <v>-2.4443158676826151</v>
       </c>
-      <c r="F563">
+      <c r="F563" s="2">
         <v>-0.33489251592356678</v>
       </c>
       <c r="G563">
@@ -21535,7 +21559,7 @@
       <c r="E564">
         <v>-0.82975658463111601</v>
       </c>
-      <c r="F564">
+      <c r="F564" s="2">
         <v>-0.22577919639504321</v>
       </c>
       <c r="G564">
@@ -21564,7 +21588,7 @@
       <c r="E565">
         <v>-0.1423703446626054</v>
       </c>
-      <c r="F565">
+      <c r="F565" s="2">
         <v>-0.35055458260361938</v>
       </c>
       <c r="G565">
@@ -21593,7 +21617,7 @@
       <c r="E566">
         <v>0.21560432899265691</v>
       </c>
-      <c r="F566">
+      <c r="F566" s="2">
         <v>-0.41955137081140959</v>
       </c>
       <c r="G566">
@@ -21622,7 +21646,7 @@
       <c r="E567">
         <v>0.13501574944847661</v>
       </c>
-      <c r="F567">
+      <c r="F567" s="2">
         <v>-0.44631946464940347</v>
       </c>
       <c r="G567">
@@ -21651,7 +21675,7 @@
       <c r="E568">
         <v>-1.059077224460343</v>
       </c>
-      <c r="F568">
+      <c r="F568" s="2">
         <v>-0.45046491969568891</v>
       </c>
       <c r="G568">
@@ -21680,7 +21704,7 @@
       <c r="E569">
         <v>1.2946444007620419</v>
       </c>
-      <c r="F569">
+      <c r="F569" s="2">
         <v>-0.4277793335200224</v>
       </c>
       <c r="G569">
@@ -21709,7 +21733,7 @@
       <c r="E570">
         <v>1.288532038857543</v>
       </c>
-      <c r="F570">
+      <c r="F570" s="2">
         <v>-0.42802690582959652</v>
       </c>
       <c r="G570">
@@ -21738,7 +21762,7 @@
       <c r="E571">
         <v>-1.113253515310392</v>
       </c>
-      <c r="F571">
+      <c r="F571" s="2">
         <v>-0.25314802723626539</v>
       </c>
       <c r="G571">
@@ -21767,7 +21791,7 @@
       <c r="E572">
         <v>-1.16234159401457</v>
       </c>
-      <c r="F572">
+      <c r="F572" s="2">
         <v>-0.25462703309029727</v>
       </c>
       <c r="G572">
@@ -21796,7 +21820,7 @@
       <c r="E573">
         <v>-2.071276690405325</v>
       </c>
-      <c r="F573">
+      <c r="F573" s="2">
         <v>-0.35</v>
       </c>
       <c r="G573">
@@ -21825,7 +21849,7 @@
       <c r="E574">
         <v>-2.113747969733911</v>
       </c>
-      <c r="F574">
+      <c r="F574" s="2">
         <v>-0.35439999999999999</v>
       </c>
       <c r="G574">
@@ -21854,7 +21878,7 @@
       <c r="E575">
         <v>-0.48747363145576139</v>
       </c>
-      <c r="F575">
+      <c r="F575" s="2">
         <v>-0.41218400331537502</v>
       </c>
       <c r="G575">
@@ -21883,7 +21907,7 @@
       <c r="E576">
         <v>-0.51355955959225319</v>
       </c>
-      <c r="F576">
+      <c r="F576" s="2">
         <v>-0.41419429901105298</v>
       </c>
       <c r="G576">
@@ -21912,7 +21936,7 @@
       <c r="E577">
         <v>-0.79628888713248913</v>
       </c>
-      <c r="F577">
+      <c r="F577" s="2">
         <v>-0.26520207638116428</v>
       </c>
       <c r="G577">
@@ -21941,7 +21965,7 @@
       <c r="E578">
         <v>-0.8365660695140188</v>
       </c>
-      <c r="F578">
+      <c r="F578" s="2">
         <v>-0.26887011419552498</v>
       </c>
       <c r="G578">
@@ -21970,7 +21994,7 @@
       <c r="E579">
         <v>-1.511695284874772</v>
       </c>
-      <c r="F579">
+      <c r="F579" s="2">
         <v>-0.31523709569697539</v>
       </c>
       <c r="G579">
@@ -21999,7 +22023,7 @@
       <c r="E580">
         <v>-1.536274522676772</v>
       </c>
-      <c r="F580">
+      <c r="F580" s="2">
         <v>-0.31713603818615749</v>
       </c>
       <c r="G580">
@@ -22028,7 +22052,7 @@
       <c r="E581">
         <v>-0.8679275945979561</v>
       </c>
-      <c r="F581">
+      <c r="F581" s="2">
         <v>-0.31787439613526569</v>
       </c>
       <c r="G581">
@@ -22057,7 +22081,7 @@
       <c r="E582">
         <v>-1.8282539236308579</v>
       </c>
-      <c r="F582">
+      <c r="F582" s="2">
         <v>-0.46545815295815302</v>
       </c>
       <c r="G582">
@@ -22086,7 +22110,7 @@
       <c r="E583">
         <v>-1.8508152514975249</v>
       </c>
-      <c r="F583">
+      <c r="F583" s="2">
         <v>-0.46730491329479767</v>
       </c>
       <c r="G583">
@@ -22115,7 +22139,7 @@
       <c r="E584">
         <v>-0.7073735781896201</v>
       </c>
-      <c r="F584">
+      <c r="F584" s="2">
         <v>-0.40379630403879929</v>
       </c>
       <c r="G584">
@@ -22144,7 +22168,7 @@
       <c r="E585">
         <v>-4.7423544033390858E-2</v>
       </c>
-      <c r="F585">
+      <c r="F585" s="2">
         <v>-0.32689156354184318</v>
       </c>
       <c r="G585">
@@ -22173,7 +22197,7 @@
       <c r="E586">
         <v>-0.5141070943269509</v>
       </c>
-      <c r="F586">
+      <c r="F586" s="2">
         <v>-0.35495932494568239</v>
       </c>
       <c r="G586">
@@ -22202,7 +22226,7 @@
       <c r="E587">
         <v>1.148044215807148</v>
       </c>
-      <c r="F587">
+      <c r="F587" s="2">
         <v>-0.14324524573968889</v>
       </c>
       <c r="G587">
@@ -22231,7 +22255,7 @@
       <c r="E588">
         <v>-0.97862057252059476</v>
       </c>
-      <c r="F588">
+      <c r="F588" s="2">
         <v>-0.20826220553089789</v>
       </c>
       <c r="G588">
@@ -22260,7 +22284,7 @@
       <c r="E589">
         <v>-0.53028332188663707</v>
       </c>
-      <c r="F589">
+      <c r="F589" s="2">
         <v>-0.19255942128832251</v>
       </c>
       <c r="G589">
@@ -22289,7 +22313,7 @@
       <c r="E590">
         <v>-0.95140958806047349</v>
       </c>
-      <c r="F590">
+      <c r="F590" s="2">
         <v>-0.24511681348142481</v>
       </c>
       <c r="G590">
@@ -22318,7 +22342,7 @@
       <c r="E591">
         <v>-0.99196018214193116</v>
       </c>
-      <c r="F591">
+      <c r="F591" s="2">
         <v>-0.2481793790724417</v>
       </c>
       <c r="G591">
@@ -22347,7 +22371,7 @@
       <c r="E592">
         <v>0.62818684768994881</v>
       </c>
-      <c r="F592">
+      <c r="F592" s="2">
         <v>-0.37505370184734349</v>
       </c>
       <c r="G592">
@@ -22376,7 +22400,7 @@
       <c r="E593">
         <v>0.60440712108769645</v>
       </c>
-      <c r="F593">
+      <c r="F593" s="2">
         <v>-0.37601378023397691</v>
       </c>
       <c r="G593">
@@ -22405,7 +22429,7 @@
       <c r="E594">
         <v>-1.9320429991394199</v>
       </c>
-      <c r="F594">
+      <c r="F594" s="2">
         <v>-0.29400039864460842</v>
       </c>
       <c r="G594">
@@ -22434,7 +22458,7 @@
       <c r="E595">
         <v>-1.961930333632588</v>
       </c>
-      <c r="F595">
+      <c r="F595" s="2">
         <v>-0.29512122119126011</v>
       </c>
       <c r="G595">
@@ -22463,7 +22487,7 @@
       <c r="E596">
         <v>0.1977139181530877</v>
       </c>
-      <c r="F596">
+      <c r="F596" s="2">
         <v>-0.40130772374335921</v>
       </c>
       <c r="G596">
@@ -22492,7 +22516,7 @@
       <c r="E597">
         <v>-1.953186745407457</v>
       </c>
-      <c r="F597">
+      <c r="F597" s="2">
         <v>-0.54896493451626527</v>
       </c>
       <c r="G597">
@@ -22521,7 +22545,7 @@
       <c r="E598">
         <v>-1.969087331148057</v>
       </c>
-      <c r="F598">
+      <c r="F598" s="2">
         <v>-0.55045250782373345</v>
       </c>
       <c r="G598">
@@ -22550,7 +22574,7 @@
       <c r="E599">
         <v>-1.9080296487877251</v>
       </c>
-      <c r="F599">
+      <c r="F599" s="2">
         <v>-0.2742</v>
       </c>
       <c r="G599">
@@ -22579,7 +22603,7 @@
       <c r="E600">
         <v>-1.944332460704298</v>
       </c>
-      <c r="F600">
+      <c r="F600" s="2">
         <v>-0.27700000000000002</v>
       </c>
       <c r="G600">
@@ -22608,7 +22632,7 @@
       <c r="E601">
         <v>-1.2378977575444789</v>
       </c>
-      <c r="F601">
+      <c r="F601" s="2">
         <v>-0.33820805303695051</v>
       </c>
       <c r="G601">
@@ -22637,7 +22661,7 @@
       <c r="E602">
         <v>-1.287937182140235</v>
       </c>
-      <c r="F602">
+      <c r="F602" s="2">
         <v>-0.34196384953590631</v>
       </c>
       <c r="G602">
@@ -22666,7 +22690,7 @@
       <c r="E603">
         <v>5.2929915772513707E-2</v>
       </c>
-      <c r="F603">
+      <c r="F603" s="2">
         <v>-0.33030514791521082</v>
       </c>
       <c r="G603">
@@ -22695,7 +22719,7 @@
       <c r="E604">
         <v>2.0387251132514252E-2</v>
       </c>
-      <c r="F604">
+      <c r="F604" s="2">
         <v>-0.33133281371784867</v>
       </c>
       <c r="G604">
@@ -22724,7 +22748,7 @@
       <c r="E605">
         <v>-1.7199284624731701</v>
       </c>
-      <c r="F605">
+      <c r="F605" s="2">
         <v>-0.27839999999999998</v>
       </c>
       <c r="G605">
@@ -22753,7 +22777,7 @@
       <c r="E606">
         <v>-1.727535525715012</v>
       </c>
-      <c r="F606">
+      <c r="F606" s="2">
         <v>-0.27900000000000003</v>
       </c>
       <c r="G606">
@@ -22782,7 +22806,7 @@
       <c r="E607">
         <v>0.38478184500440588</v>
       </c>
-      <c r="F607">
+      <c r="F607" s="2">
         <v>-0.17881162460665151</v>
       </c>
       <c r="G607">
@@ -22811,7 +22835,7 @@
       <c r="E608">
         <v>-1.306010198588887</v>
       </c>
-      <c r="F608">
+      <c r="F608" s="2">
         <v>-0.4119132223676828</v>
       </c>
       <c r="G608">
@@ -22840,7 +22864,7 @@
       <c r="E609">
         <v>-1.2991747238022899</v>
       </c>
-      <c r="F609">
+      <c r="F609" s="2">
         <v>-0.28360329639102022</v>
       </c>
       <c r="G609">
@@ -22869,7 +22893,7 @@
       <c r="E610">
         <v>-1.3397505936456731</v>
       </c>
-      <c r="F610">
+      <c r="F610" s="2">
         <v>-0.28579556229850178</v>
       </c>
       <c r="G610">
@@ -22898,7 +22922,7 @@
       <c r="E611">
         <v>-1.905158669779478</v>
       </c>
-      <c r="F611">
+      <c r="F611" s="2">
         <v>-0.13462873004857731</v>
       </c>
       <c r="G611">
@@ -22927,7 +22951,7 @@
       <c r="E612">
         <v>-2.0000707682448819</v>
       </c>
-      <c r="F612">
+      <c r="F612" s="2">
         <v>-0.31043554516223332</v>
       </c>
       <c r="G612">
@@ -22956,7 +22980,7 @@
       <c r="E613">
         <v>-2.0614954057072512</v>
       </c>
-      <c r="F613">
+      <c r="F613" s="2">
         <v>-0.31385935823661371</v>
       </c>
       <c r="G613">
@@ -22985,7 +23009,7 @@
       <c r="E614">
         <v>-1.4262054574256711</v>
       </c>
-      <c r="F614">
+      <c r="F614" s="2">
         <v>-0.24615687820260149</v>
       </c>
       <c r="G614">
@@ -23014,7 +23038,7 @@
       <c r="E615">
         <v>-1.4837712506933951</v>
       </c>
-      <c r="F615">
+      <c r="F615" s="2">
         <v>-0.24824309611006631</v>
       </c>
       <c r="G615">
@@ -23043,7 +23067,7 @@
       <c r="E616">
         <v>-1.164349729762052</v>
       </c>
-      <c r="F616">
+      <c r="F616" s="2">
         <v>-0.27710383035628988</v>
       </c>
       <c r="G616">
@@ -23072,7 +23096,7 @@
       <c r="E617">
         <v>-1.2045578644623789</v>
       </c>
-      <c r="F617">
+      <c r="F617" s="2">
         <v>-0.27976304223198922</v>
       </c>
       <c r="G617">
@@ -23101,7 +23125,7 @@
       <c r="E618">
         <v>-1.7721091457748881</v>
       </c>
-      <c r="F618">
+      <c r="F618" s="2">
         <v>-0.29568515884305357</v>
       </c>
       <c r="G618">
@@ -23130,7 +23154,7 @@
       <c r="E619">
         <v>-1.7956351574268199</v>
       </c>
-      <c r="F619">
+      <c r="F619" s="2">
         <v>-0.29679195140470771</v>
       </c>
       <c r="G619">
@@ -23159,7 +23183,7 @@
       <c r="E620">
         <v>1.2885669965111459</v>
       </c>
-      <c r="F620">
+      <c r="F620" s="2">
         <v>-0.42270397134210369</v>
       </c>
       <c r="G620">
@@ -23188,7 +23212,7 @@
       <c r="E621">
         <v>1.274984560126033</v>
       </c>
-      <c r="F621">
+      <c r="F621" s="2">
         <v>-0.42345518649100022</v>
       </c>
       <c r="G621">
@@ -23217,7 +23241,7 @@
       <c r="E622">
         <v>0.97784132036675164</v>
       </c>
-      <c r="F622">
+      <c r="F622" s="2">
         <v>-0.39271255060728749</v>
       </c>
       <c r="G622">
@@ -23246,7 +23270,7 @@
       <c r="E623">
         <v>-0.58010318885521261</v>
       </c>
-      <c r="F623">
+      <c r="F623" s="2">
         <v>-0.43255108556832689</v>
       </c>
       <c r="G623">
@@ -23275,7 +23299,7 @@
       <c r="E624">
         <v>-0.60007951488421163</v>
       </c>
-      <c r="F624">
+      <c r="F624" s="2">
         <v>-0.43342662934826071</v>
       </c>
       <c r="G624">
@@ -23304,7 +23328,7 @@
       <c r="E625">
         <v>-2.5384282272007441</v>
       </c>
-      <c r="F625">
+      <c r="F625" s="2">
         <v>-0.2229763449446053</v>
       </c>
       <c r="G625">
@@ -23333,7 +23357,7 @@
       <c r="E626">
         <v>-2.5730709394295519</v>
       </c>
-      <c r="F626">
+      <c r="F626" s="2">
         <v>-0.22406390414378441</v>
       </c>
       <c r="G626">
@@ -23362,7 +23386,7 @@
       <c r="E627">
         <v>-1.0501970502784119</v>
       </c>
-      <c r="F627">
+      <c r="F627" s="2">
         <v>-0.35591182364729468</v>
       </c>
       <c r="G627">
@@ -23391,7 +23415,7 @@
       <c r="E628">
         <v>-1.3680785115174281</v>
       </c>
-      <c r="F628">
+      <c r="F628" s="2">
         <v>-0.2720037019898196</v>
       </c>
       <c r="G628">
@@ -23420,7 +23444,7 @@
       <c r="E629">
         <v>-1.3962142497168919</v>
       </c>
-      <c r="F629">
+      <c r="F629" s="2">
         <v>-0.27343460540941078</v>
       </c>
       <c r="G629">
@@ -23449,7 +23473,7 @@
       <c r="E630">
         <v>-1.714529910217603</v>
       </c>
-      <c r="F630">
+      <c r="F630" s="2">
         <v>-0.46500000000000002</v>
       </c>
       <c r="G630">
@@ -23478,7 +23502,7 @@
       <c r="E631">
         <v>-1.731697560678003</v>
       </c>
-      <c r="F631">
+      <c r="F631" s="2">
         <v>-0.46700000000000003</v>
       </c>
       <c r="G631">
@@ -23507,7 +23531,7 @@
       <c r="E632">
         <v>-0.55395601532105598</v>
       </c>
-      <c r="F632">
+      <c r="F632" s="2">
         <v>-0.37632115705544222</v>
       </c>
       <c r="G632">
@@ -23536,7 +23560,7 @@
       <c r="E633">
         <v>-2.638043635126238</v>
       </c>
-      <c r="F633">
+      <c r="F633" s="2">
         <v>-0.47196442382057219</v>
       </c>
       <c r="G633">
@@ -23565,7 +23589,7 @@
       <c r="E634">
         <v>-2.6559217526333501</v>
       </c>
-      <c r="F634">
+      <c r="F634" s="2">
         <v>-0.4732160123767164</v>
       </c>
       <c r="G634">
@@ -23594,7 +23618,7 @@
       <c r="E635">
         <v>-1.8570269111582001</v>
       </c>
-      <c r="F635">
+      <c r="F635" s="2">
         <v>-0.41686506412717922</v>
       </c>
       <c r="G635">
@@ -23623,7 +23647,7 @@
       <c r="E636">
         <v>-2.4967629076121152</v>
       </c>
-      <c r="F636">
+      <c r="F636" s="2">
         <v>-0.46578059908748271</v>
       </c>
       <c r="G636">
@@ -23652,7 +23676,7 @@
       <c r="E637">
         <v>-2.5179894077529901</v>
       </c>
-      <c r="F637">
+      <c r="F637" s="2">
         <v>-0.46736758579646892</v>
       </c>
       <c r="G637">
@@ -23681,7 +23705,7 @@
       <c r="E638">
         <v>-0.83601454825796651</v>
       </c>
-      <c r="F638">
+      <c r="F638" s="2">
         <v>-0.47772581836081712</v>
       </c>
       <c r="G638">
@@ -23710,7 +23734,7 @@
       <c r="E639">
         <v>-2.346615015429605</v>
       </c>
-      <c r="F639">
+      <c r="F639" s="2">
         <v>-0.25354362148133358</v>
       </c>
       <c r="G639">
@@ -23739,7 +23763,7 @@
       <c r="E640">
         <v>-2.4065322816322459</v>
       </c>
-      <c r="F640">
+      <c r="F640" s="2">
         <v>-0.25728833865814699</v>
       </c>
       <c r="G640">
@@ -23768,7 +23792,7 @@
       <c r="E641">
         <v>-2.4248536124920368</v>
       </c>
-      <c r="F641">
+      <c r="F641" s="2">
         <v>-0.4361677069838652</v>
       </c>
       <c r="G641">
@@ -23797,7 +23821,7 @@
       <c r="E642">
         <v>-1.080133641474325</v>
       </c>
-      <c r="F642">
+      <c r="F642" s="2">
         <v>-0.4211371124440314</v>
       </c>
       <c r="G642">
@@ -23826,7 +23850,7 @@
       <c r="E643">
         <v>-1.518951486143709</v>
       </c>
-      <c r="F643">
+      <c r="F643" s="2">
         <v>-0.34516912726593157</v>
       </c>
       <c r="G643">
@@ -23855,7 +23879,7 @@
       <c r="E644">
         <v>-1.5604495106775389</v>
       </c>
-      <c r="F644">
+      <c r="F644" s="2">
         <v>-0.34656059897051938</v>
       </c>
       <c r="G644">
@@ -23884,7 +23908,7 @@
       <c r="E645">
         <v>-2.2014019890382128</v>
       </c>
-      <c r="F645">
+      <c r="F645" s="2">
         <v>-0.38438296666981397</v>
       </c>
       <c r="G645">
@@ -23913,7 +23937,7 @@
       <c r="E646">
         <v>-2.232422121746461</v>
       </c>
-      <c r="F646">
+      <c r="F646" s="2">
         <v>-0.38561164681414262</v>
       </c>
       <c r="G646">
@@ -23942,7 +23966,7 @@
       <c r="E647">
         <v>-1.406451881795481</v>
       </c>
-      <c r="F647">
+      <c r="F647" s="2">
         <v>-0.28946395563770799</v>
       </c>
       <c r="G647">
@@ -23971,7 +23995,7 @@
       <c r="E648">
         <v>-1.436658465202084</v>
       </c>
-      <c r="F648">
+      <c r="F648" s="2">
         <v>-0.29058246133901289</v>
       </c>
       <c r="G648">
@@ -24000,7 +24024,7 @@
       <c r="E649">
         <v>-0.83086954382580125</v>
       </c>
-      <c r="F649">
+      <c r="F649" s="2">
         <v>-0.44082612872238242</v>
       </c>
       <c r="G649">
@@ -24029,7 +24053,7 @@
       <c r="E650">
         <v>-1.580870006831075</v>
       </c>
-      <c r="F650">
+      <c r="F650" s="2">
         <v>-0.33324996248311739</v>
       </c>
       <c r="G650">
@@ -24058,7 +24082,7 @@
       <c r="E651">
         <v>-0.94732036712204515</v>
       </c>
-      <c r="F651">
+      <c r="F651" s="2">
         <v>-0.40190387740886929</v>
       </c>
       <c r="G651">
@@ -24087,7 +24111,7 @@
       <c r="E652">
         <v>-2.000687698895419</v>
       </c>
-      <c r="F652">
+      <c r="F652" s="2">
         <v>-0.33725414577709212</v>
       </c>
       <c r="G652">
@@ -24116,7 +24140,7 @@
       <c r="E653">
         <v>-1.5918213235568801</v>
       </c>
-      <c r="F653">
+      <c r="F653" s="2">
         <v>-0.2386333632571157</v>
       </c>
       <c r="G653">
@@ -24145,7 +24169,7 @@
       <c r="E654">
         <v>-1.431098182162573</v>
       </c>
-      <c r="F654">
+      <c r="F654" s="2">
         <v>-0.44836656767076799</v>
       </c>
       <c r="G654">
@@ -24174,7 +24198,7 @@
       <c r="E655">
         <v>-1.453967806674072</v>
       </c>
-      <c r="F655">
+      <c r="F655" s="2">
         <v>-0.44952025133735252</v>
       </c>
       <c r="G655">
@@ -24203,7 +24227,7 @@
       <c r="E656">
         <v>-1.663980825820488</v>
       </c>
-      <c r="F656">
+      <c r="F656" s="2">
         <v>-0.30208036477628952</v>
       </c>
       <c r="G656">
@@ -24232,7 +24256,7 @@
       <c r="E657">
         <v>-2.9604082083151209</v>
       </c>
-      <c r="F657">
+      <c r="F657" s="2">
         <v>-0.21701664025356579</v>
       </c>
       <c r="G657">
@@ -24261,7 +24285,7 @@
       <c r="E658">
         <v>-1.4485762003931091</v>
       </c>
-      <c r="F658">
+      <c r="F658" s="2">
         <v>-0.27168592128451152</v>
       </c>
       <c r="G658">
@@ -24290,7 +24314,7 @@
       <c r="E659">
         <v>-1.481094071974645</v>
       </c>
-      <c r="F659">
+      <c r="F659" s="2">
         <v>-0.27316356513222328</v>
       </c>
       <c r="G659">
@@ -24319,7 +24343,7 @@
       <c r="E660">
         <v>-2.4812937903009189</v>
       </c>
-      <c r="F660">
+      <c r="F660" s="2">
         <v>-0.34312805107022148</v>
       </c>
       <c r="G660">
@@ -24348,7 +24372,7 @@
       <c r="E661">
         <v>-2.225309099524631</v>
       </c>
-      <c r="F661">
+      <c r="F661" s="2">
         <v>-0.1557490599643776</v>
       </c>
       <c r="G661">
@@ -24377,7 +24401,7 @@
       <c r="E662">
         <v>-2.2573651067167648</v>
       </c>
-      <c r="F662">
+      <c r="F662" s="2">
         <v>-0.15648212340299111</v>
       </c>
       <c r="G662">
@@ -24406,7 +24430,7 @@
       <c r="E663">
         <v>-2.1169100533847849</v>
       </c>
-      <c r="F663">
+      <c r="F663" s="2">
         <v>-0.28242187499999999</v>
       </c>
       <c r="G663">
@@ -24435,7 +24459,7 @@
       <c r="E664">
         <v>-1.4113967614622771</v>
       </c>
-      <c r="F664">
+      <c r="F664" s="2">
         <v>-0.3789440929364174</v>
       </c>
       <c r="G664">
@@ -24464,7 +24488,7 @@
       <c r="E665">
         <v>-2.0751479301125171</v>
       </c>
-      <c r="F665">
+      <c r="F665" s="2">
         <v>-0.39507162711139621</v>
       </c>
       <c r="G665">
@@ -24493,7 +24517,7 @@
       <c r="E666">
         <v>-2.0312471799129468</v>
       </c>
-      <c r="F666">
+      <c r="F666" s="2">
         <v>-0.42154065620542081</v>
       </c>
       <c r="G666">
@@ -24522,7 +24546,7 @@
       <c r="E667">
         <v>-2.5284984196314801</v>
       </c>
-      <c r="F667">
+      <c r="F667" s="2">
         <v>-0.33483189992181411</v>
       </c>
       <c r="G667">
@@ -24551,7 +24575,7 @@
       <c r="E668">
         <v>-2.5618990795656682</v>
       </c>
-      <c r="F668">
+      <c r="F668" s="2">
         <v>-0.3361689645057202</v>
       </c>
       <c r="G668">
@@ -24580,7 +24604,7 @@
       <c r="E669">
         <v>-3.7012029675046092</v>
       </c>
-      <c r="F669">
+      <c r="F669" s="2">
         <v>-0.37258016479698208</v>
       </c>
       <c r="G669">
@@ -24609,7 +24633,7 @@
       <c r="E670">
         <v>-3.7264138819676602</v>
       </c>
-      <c r="F670">
+      <c r="F670" s="2">
         <v>-0.37362200814380758</v>
       </c>
       <c r="G670">
@@ -24638,7 +24662,7 @@
       <c r="E671">
         <v>-2.8482825519386119</v>
       </c>
-      <c r="F671">
+      <c r="F671" s="2">
         <v>-0.1371</v>
       </c>
       <c r="G671">
@@ -24667,7 +24691,7 @@
       <c r="E672">
         <v>-2.9282373255926619</v>
       </c>
-      <c r="F672">
+      <c r="F672" s="2">
         <v>-0.13830000000000001</v>
       </c>
       <c r="G672">
@@ -24696,7 +24720,7 @@
       <c r="E673">
         <v>-1.652457414992299</v>
       </c>
-      <c r="F673">
+      <c r="F673" s="2">
         <v>-0.26715696233391573</v>
       </c>
       <c r="G673">
@@ -24725,7 +24749,7 @@
       <c r="E674">
         <v>-0.33939155943262073</v>
       </c>
-      <c r="F674">
+      <c r="F674" s="2">
         <v>-0.28912280701754389</v>
       </c>
       <c r="G674">
@@ -24754,7 +24778,7 @@
       <c r="E675">
         <v>-3.4138999212967138</v>
       </c>
-      <c r="F675">
+      <c r="F675" s="2">
         <v>-0.23469999999999999</v>
       </c>
       <c r="G675">
@@ -24783,7 +24807,7 @@
       <c r="E676">
         <v>-3.4273552286997662</v>
       </c>
-      <c r="F676">
+      <c r="F676" s="2">
         <v>-0.23530000000000001</v>
       </c>
       <c r="G676">
@@ -24812,7 +24836,7 @@
       <c r="E677">
         <v>-1.879984109661871</v>
       </c>
-      <c r="F677">
+      <c r="F677" s="2">
         <v>-0.29153873814067988</v>
       </c>
       <c r="G677">
@@ -24841,7 +24865,7 @@
       <c r="E678">
         <v>-2.0182793581245622</v>
       </c>
-      <c r="F678">
+      <c r="F678" s="2">
         <v>-0.33709194133417442</v>
       </c>
       <c r="G678">
@@ -24870,7 +24894,7 @@
       <c r="E679">
         <v>-3.4874441390471072</v>
       </c>
-      <c r="F679">
+      <c r="F679" s="2">
         <v>-0.38390000000000002</v>
       </c>
       <c r="G679">
@@ -24899,7 +24923,7 @@
       <c r="E680">
         <v>-3.5060707335629848</v>
       </c>
-      <c r="F680">
+      <c r="F680" s="2">
         <v>-0.38490000000000002</v>
       </c>
       <c r="G680">
@@ -24928,7 +24952,7 @@
       <c r="E681">
         <v>-0.96997315557034725</v>
       </c>
-      <c r="F681">
+      <c r="F681" s="2">
         <v>-0.22441920054663481</v>
       </c>
       <c r="G681">
@@ -24957,7 +24981,7 @@
       <c r="E682">
         <v>1.122609468911031E-3</v>
       </c>
-      <c r="F682">
+      <c r="F682" s="2">
         <v>-9.9999999999988987E-5</v>
       </c>
       <c r="G682">
@@ -24986,7 +25010,7 @@
       <c r="E683">
         <v>-15.87450784654243</v>
       </c>
-      <c r="F683">
+      <c r="F683" s="2">
         <v>-1.99999999999978E-4</v>
       </c>
       <c r="G683">
@@ -25015,7 +25039,7 @@
       <c r="E684" t="s">
         <v>1374</v>
       </c>
-      <c r="F684">
+      <c r="F684" s="2">
         <v>0</v>
       </c>
       <c r="G684">
@@ -25044,7 +25068,7 @@
       <c r="E685" t="s">
         <v>1374</v>
       </c>
-      <c r="F685">
+      <c r="F685" s="2">
         <v>0</v>
       </c>
       <c r="G685">
@@ -25073,7 +25097,7 @@
       <c r="E686">
         <v>-1.5230327723907999</v>
       </c>
-      <c r="F686">
+      <c r="F686" s="2">
         <v>0</v>
       </c>
       <c r="G686">
@@ -25102,7 +25126,7 @@
       <c r="E687">
         <v>-2.311929210926237</v>
       </c>
-      <c r="F687">
+      <c r="F687" s="2">
         <v>-0.13759999999999989</v>
       </c>
       <c r="G687">
@@ -25131,7 +25155,7 @@
       <c r="E688">
         <v>-2.4419335637192252</v>
       </c>
-      <c r="F688">
+      <c r="F688" s="2">
         <v>-0.14019999999999999</v>
       </c>
       <c r="G688">
@@ -25160,7 +25184,7 @@
       <c r="E689">
         <v>-1.6683481435009</v>
       </c>
-      <c r="F689">
+      <c r="F689" s="2">
         <v>-0.2170811453482612</v>
       </c>
       <c r="G689">
@@ -25189,7 +25213,7 @@
       <c r="E690">
         <v>-1.7151482401349001</v>
       </c>
-      <c r="F690">
+      <c r="F690" s="2">
         <v>-0.21883052527254701</v>
       </c>
       <c r="G690">
@@ -25218,7 +25242,7 @@
       <c r="E691">
         <v>7.9587350498098903</v>
       </c>
-      <c r="F691">
+      <c r="F691" s="2">
         <v>-7.7600000000000002E-2</v>
       </c>
       <c r="G691">
@@ -25247,7 +25271,7 @@
       <c r="E692">
         <v>7.8304748787577241</v>
       </c>
-      <c r="F692">
+      <c r="F692" s="2">
         <v>-7.8099999999999947E-2</v>
       </c>
       <c r="G692">
@@ -25276,7 +25300,7 @@
       <c r="E693">
         <v>-1.275980963101593</v>
       </c>
-      <c r="F693">
+      <c r="F693" s="2">
         <v>-0.2537960954446854</v>
       </c>
       <c r="G693">
@@ -25305,7 +25329,7 @@
       <c r="E694">
         <v>-2.4247759441203058</v>
       </c>
-      <c r="F694">
+      <c r="F694" s="2">
         <v>-0.2330271565495208</v>
       </c>
       <c r="G694">
@@ -25334,7 +25358,7 @@
       <c r="E695">
         <v>-2.4484077885185478</v>
       </c>
-      <c r="F695">
+      <c r="F695" s="2">
         <v>-0.23372603833865821</v>
       </c>
       <c r="G695">
@@ -25363,7 +25387,7 @@
       <c r="E696">
         <v>-2.7853736033192642</v>
       </c>
-      <c r="F696">
+      <c r="F696" s="2">
         <v>-0.31379180759113112</v>
       </c>
       <c r="G696">
@@ -25392,7 +25416,7 @@
       <c r="E697">
         <v>1.5392436731266601</v>
       </c>
-      <c r="F697">
+      <c r="F697" s="2">
         <v>-0.17214306484443159</v>
       </c>
       <c r="G697">
@@ -25421,7 +25445,7 @@
       <c r="E698">
         <v>1.4877334388896619</v>
       </c>
-      <c r="F698">
+      <c r="F698" s="2">
         <v>-0.1727748691099478</v>
       </c>
       <c r="G698">
@@ -25450,7 +25474,7 @@
       <c r="E699">
         <v>-1.363377259493894</v>
       </c>
-      <c r="F699">
+      <c r="F699" s="2">
         <v>-0.19020947686792891</v>
       </c>
       <c r="G699">
@@ -25479,7 +25503,7 @@
       <c r="E700">
         <v>-2.9449631053449812</v>
       </c>
-      <c r="F700">
+      <c r="F700" s="2">
         <v>-0.33553251649387372</v>
       </c>
       <c r="G700">
@@ -25508,7 +25532,7 @@
       <c r="E701">
         <v>-3.6695562337516301</v>
       </c>
-      <c r="F701">
+      <c r="F701" s="2">
         <v>-0.2714539356875123</v>
       </c>
       <c r="G701">
@@ -25537,7 +25561,7 @@
       <c r="E702">
         <v>-3.7026812682932788</v>
       </c>
-      <c r="F702">
+      <c r="F702" s="2">
         <v>-0.27263760110475432</v>
       </c>
       <c r="G702">
@@ -25566,7 +25590,7 @@
       <c r="E703">
         <v>-3.9788852172547968</v>
       </c>
-      <c r="F703">
+      <c r="F703" s="2">
         <v>-0.29365645046329292</v>
       </c>
       <c r="G703">
@@ -25595,7 +25619,7 @@
       <c r="E704">
         <v>-2.4874170633772872</v>
       </c>
-      <c r="F704">
+      <c r="F704" s="2">
         <v>-0.3106224066390042</v>
       </c>
       <c r="G704">
@@ -25624,7 +25648,7 @@
       <c r="E705">
         <v>-2.95402925905262</v>
       </c>
-      <c r="F705">
+      <c r="F705" s="2">
         <v>-0.34716981132075458</v>
       </c>
       <c r="G705">
@@ -25653,7 +25677,7 @@
       <c r="E706">
         <v>-1.932703757367825</v>
       </c>
-      <c r="F706">
+      <c r="F706" s="2">
         <v>-0.19321203638908321</v>
       </c>
       <c r="G706">
@@ -25682,7 +25706,7 @@
       <c r="E707">
         <v>-2.0219778256648051</v>
       </c>
-      <c r="F707">
+      <c r="F707" s="2">
         <v>-0.31069392569294291</v>
       </c>
       <c r="G707">
@@ -25711,7 +25735,7 @@
       <c r="E708">
         <v>-2.043655320369727</v>
       </c>
-      <c r="F708">
+      <c r="F708" s="2">
         <v>-0.31120943952802349</v>
       </c>
       <c r="G708">
@@ -25740,7 +25764,7 @@
       <c r="E709">
         <v>-3.112859165311896</v>
       </c>
-      <c r="F709">
+      <c r="F709" s="2">
         <v>0</v>
       </c>
       <c r="G709">
@@ -25769,7 +25793,7 @@
       <c r="E710">
         <v>-4.3629606290800744</v>
       </c>
-      <c r="F710">
+      <c r="F710" s="2">
         <v>-6.25E-2</v>
       </c>
       <c r="G710">
@@ -25798,7 +25822,7 @@
       <c r="E711">
         <v>-4.4129196210533843</v>
       </c>
-      <c r="F711">
+      <c r="F711" s="2">
         <v>-6.2799999999999967E-2</v>
       </c>
       <c r="G711">
@@ -25827,7 +25851,7 @@
       <c r="E712">
         <v>-1.4097752668622829</v>
       </c>
-      <c r="F712">
+      <c r="F712" s="2">
         <v>-0.2558359621451104</v>
       </c>
       <c r="G712">
@@ -25856,7 +25880,7 @@
       <c r="E713">
         <v>-0.81760204512226553</v>
       </c>
-      <c r="F713">
+      <c r="F713" s="2">
         <v>-0.16594576609549161</v>
       </c>
       <c r="G713">
@@ -25885,7 +25909,7 @@
       <c r="E714">
         <v>-0.20614245788517849</v>
       </c>
-      <c r="F714">
+      <c r="F714" s="2">
         <v>-0.29121608802883697</v>
       </c>
       <c r="G714">
@@ -25914,7 +25938,7 @@
       <c r="E715">
         <v>-0.22955131750040669</v>
       </c>
-      <c r="F715">
+      <c r="F715" s="2">
         <v>-0.29185649202733488</v>
       </c>
       <c r="G715">
@@ -25943,7 +25967,7 @@
       <c r="E716">
         <v>-2.1036726389305289</v>
       </c>
-      <c r="F716">
+      <c r="F716" s="2">
         <v>-0.2621462893753338</v>
       </c>
       <c r="G716">
@@ -25972,7 +25996,7 @@
       <c r="E717">
         <v>-2.3612208380751878</v>
       </c>
-      <c r="F717">
+      <c r="F717" s="2">
         <v>-0.21664458959484759</v>
       </c>
       <c r="G717">
@@ -26001,7 +26025,7 @@
       <c r="E718">
         <v>-2.0857250408052121</v>
       </c>
-      <c r="F718">
+      <c r="F718" s="2">
         <v>-0.30760723595860662</v>
       </c>
       <c r="G718">
@@ -26030,7 +26054,7 @@
       <c r="E719">
         <v>1.0185532586657211</v>
       </c>
-      <c r="F719">
+      <c r="F719" s="2">
         <v>-0.20708064062939019</v>
       </c>
       <c r="G719">
@@ -26059,7 +26083,7 @@
       <c r="E720">
         <v>-3.1264825571144161</v>
       </c>
-      <c r="F720">
+      <c r="F720" s="2">
         <v>-0.23951935914552749</v>
       </c>
       <c r="G720">
@@ -26088,7 +26112,7 @@
       <c r="E721">
         <v>-5.2582464249776181E-2</v>
       </c>
-      <c r="F721">
+      <c r="F721" s="2">
         <v>-0.33269304648482517</v>
       </c>
       <c r="G721">
@@ -26117,7 +26141,7 @@
       <c r="E722">
         <v>-1.314864235682927</v>
       </c>
-      <c r="F722">
+      <c r="F722" s="2">
         <v>-0.35556736646292852</v>
       </c>
       <c r="G722">
@@ -26146,7 +26170,7 @@
       <c r="E723">
         <v>0.23883299908488889</v>
       </c>
-      <c r="F723">
+      <c r="F723" s="2">
         <v>-4.1999999999999824E-3</v>
       </c>
       <c r="G723">
@@ -26175,7 +26199,7 @@
       <c r="E724">
         <v>-1.178255804219462</v>
       </c>
-      <c r="F724">
+      <c r="F724" s="2">
         <v>-4.4999999999999476E-3</v>
       </c>
       <c r="G724">
@@ -26204,7 +26228,7 @@
       <c r="E725">
         <v>-2.142581369142079</v>
       </c>
-      <c r="F725">
+      <c r="F725" s="2">
         <v>-0.34760051880674447</v>
       </c>
       <c r="G725">
@@ -26233,7 +26257,7 @@
       <c r="E726">
         <v>-2.1852115870806839</v>
       </c>
-      <c r="F726">
+      <c r="F726" s="2">
         <v>-0.20083834517951529</v>
       </c>
       <c r="G726">
@@ -26262,7 +26286,7 @@
       <c r="E727">
         <v>1.505386949834508</v>
       </c>
-      <c r="F727">
+      <c r="F727" s="2">
         <v>-2.0598138245197069E-2</v>
       </c>
       <c r="G727">
@@ -26291,7 +26315,7 @@
       <c r="E728">
         <v>1.3087652515197861</v>
       </c>
-      <c r="F728">
+      <c r="F728" s="2">
         <v>-2.0705369526451411E-2</v>
       </c>
       <c r="G728">
@@ -26320,7 +26344,7 @@
       <c r="E729">
         <v>-0.93951437496644119</v>
       </c>
-      <c r="F729">
+      <c r="F729" s="2">
         <v>-0.22230681385610951</v>
       </c>
       <c r="G729">
@@ -26349,7 +26373,7 @@
       <c r="E730">
         <v>-0.92395112034607896</v>
       </c>
-      <c r="F730">
+      <c r="F730" s="2">
         <v>-0.22230681385610951</v>
       </c>
       <c r="G730">
@@ -26378,7 +26402,7 @@
       <c r="E731">
         <v>-1.601916158174441</v>
       </c>
-      <c r="F731">
+      <c r="F731" s="2">
         <v>-0.20000000000000009</v>
       </c>
       <c r="G731">
@@ -26407,7 +26431,7 @@
       <c r="E732">
         <v>-1.604394751000465</v>
       </c>
-      <c r="F732">
+      <c r="F732" s="2">
         <v>-0.20000000000000009</v>
       </c>
       <c r="G732">
@@ -26436,7 +26460,7 @@
       <c r="E733">
         <v>-2.0487926737581699</v>
       </c>
-      <c r="F733">
+      <c r="F733" s="2">
         <v>-0.1045366795366796</v>
       </c>
       <c r="G733">
@@ -26465,7 +26489,7 @@
       <c r="E734">
         <v>-2.0993297340832919</v>
       </c>
-      <c r="F734">
+      <c r="F734" s="2">
         <v>-0.1050497248237908</v>
       </c>
       <c r="G734">
@@ -26494,7 +26518,7 @@
       <c r="E735">
         <v>-2.1688913806726289</v>
       </c>
-      <c r="F735">
+      <c r="F735" s="2">
         <v>-0.33504128942393802</v>
       </c>
       <c r="G735">
@@ -26523,7 +26547,7 @@
       <c r="E736">
         <v>-3.1056532734454412</v>
       </c>
-      <c r="F736">
+      <c r="F736" s="2">
         <v>-0.28529297632906481</v>
       </c>
       <c r="G736">
@@ -26552,7 +26576,7 @@
       <c r="E737">
         <v>-2.439462221071905</v>
       </c>
-      <c r="F737">
+      <c r="F737" s="2">
         <v>-0.20927812858782999</v>
       </c>
       <c r="G737">
@@ -26581,7 +26605,7 @@
       <c r="E738">
         <v>-2.1592269689182788</v>
       </c>
-      <c r="F738">
+      <c r="F738" s="2">
         <v>0</v>
       </c>
       <c r="G738">
@@ -26610,7 +26634,7 @@
       <c r="E739">
         <v>-2.1033419123255328</v>
       </c>
-      <c r="F739">
+      <c r="F739" s="2">
         <v>-0.2104371399525585</v>
       </c>
       <c r="G739">
@@ -26639,7 +26663,7 @@
       <c r="E740">
         <v>-0.83024950518419383</v>
       </c>
-      <c r="F740">
+      <c r="F740" s="2">
         <v>-0.13755980861244019</v>
       </c>
       <c r="G740">
@@ -26668,7 +26692,7 @@
       <c r="E741">
         <v>-0.83339400619573767</v>
       </c>
-      <c r="F741">
+      <c r="F741" s="2">
         <v>-0.13755980861244019</v>
       </c>
       <c r="G741">
@@ -26697,7 +26721,7 @@
       <c r="E742">
         <v>-0.80068493558260656</v>
       </c>
-      <c r="F742">
+      <c r="F742" s="2">
         <v>-0.28955223880597009</v>
       </c>
       <c r="G742">
@@ -26726,7 +26750,7 @@
       <c r="E743">
         <v>-0.78172872539537652</v>
       </c>
-      <c r="F743">
+      <c r="F743" s="2">
         <v>-0.2892934496282854</v>
       </c>
       <c r="G743">
@@ -26755,7 +26779,7 @@
       <c r="E744">
         <v>-2.1479487672727449</v>
       </c>
-      <c r="F744">
+      <c r="F744" s="2">
         <v>-0.1968201754385964</v>
       </c>
       <c r="G744">
@@ -26784,7 +26808,7 @@
       <c r="E745">
         <v>-2.1274885542517521</v>
       </c>
-      <c r="F745">
+      <c r="F745" s="2">
         <v>-0.1962719298245614</v>
       </c>
       <c r="G745">
@@ -26813,7 +26837,7 @@
       <c r="E746">
         <v>-1.7153608438984</v>
       </c>
-      <c r="F746">
+      <c r="F746" s="2">
         <v>-0.12599717372475741</v>
       </c>
       <c r="G746">
@@ -26842,7 +26866,7 @@
       <c r="E747">
         <v>-1.8325244609840019</v>
       </c>
-      <c r="F747">
+      <c r="F747" s="2">
         <v>-0.27294685990338158</v>
       </c>
       <c r="G747">
@@ -26871,7 +26895,7 @@
       <c r="E748">
         <v>-2.3174194812771951</v>
       </c>
-      <c r="F748">
+      <c r="F748" s="2">
         <v>-0.15353300378016879</v>
       </c>
       <c r="G748">
@@ -26900,7 +26924,7 @@
       <c r="E749">
         <v>0.67864471465287513</v>
       </c>
-      <c r="F749">
+      <c r="F749" s="2">
         <v>-5.8500000000000003E-2</v>
       </c>
       <c r="G749">
@@ -26929,7 +26953,7 @@
       <c r="E750" t="s">
         <v>1374</v>
       </c>
-      <c r="F750">
+      <c r="F750" s="2">
         <v>0</v>
       </c>
       <c r="G750">
@@ -26958,7 +26982,7 @@
       <c r="E751" t="s">
         <v>1374</v>
       </c>
-      <c r="F751">
+      <c r="F751" s="2">
         <v>0</v>
       </c>
       <c r="G751">
@@ -26987,7 +27011,7 @@
       <c r="E752">
         <v>0.86787180822891041</v>
       </c>
-      <c r="F752">
+      <c r="F752" s="2">
         <v>-0.43351280796214708</v>
       </c>
       <c r="G752">
@@ -27016,8 +27040,8 @@
       <c r="E753">
         <v>0.23829117515873191</v>
       </c>
-      <c r="F753">
-        <v>-1</v>
+      <c r="F753" s="2">
+        <v>-0.85460000000000003</v>
       </c>
       <c r="G753">
         <v>-3.6161158181972963E-2</v>
@@ -28248,6 +28272,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I795" xr:uid="{314F9AD2-0AD6-4910-96B8-8737F3A7AB9D}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
